--- a/doc/设计文档.xlsx
+++ b/doc/设计文档.xlsx
@@ -1,32 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edmondchen/Dev_Prj/pyProjectEventSystem_Pyside_version/doc/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dev_prj\pyProjectEventSystem_v2\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EF140B2-6D6B-D441-B948-ED952F533564}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B64CDF-9FC9-4D91-8F03-7B098CC69875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" tabRatio="820" activeTab="5" xr2:uid="{883248E0-534C-4554-ABE7-C4D8C7626446}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="820" activeTab="1" xr2:uid="{883248E0-534C-4554-ABE7-C4D8C7626446}"/>
   </bookViews>
   <sheets>
     <sheet name="接口设计" sheetId="1" r:id="rId1"/>
-    <sheet name="表设计" sheetId="2" r:id="rId2"/>
-    <sheet name="ER" sheetId="15" r:id="rId3"/>
-    <sheet name="TMSTCOMP" sheetId="5" r:id="rId4"/>
-    <sheet name="TMSTDEPT" sheetId="4" r:id="rId5"/>
-    <sheet name="TMSTUSER" sheetId="3" r:id="rId6"/>
-    <sheet name="TMSTMENU" sheetId="6" r:id="rId7"/>
-    <sheet name="TAUTPERMISSIONGROUP" sheetId="7" r:id="rId8"/>
-    <sheet name="TAUTGROUPMENU" sheetId="8" r:id="rId9"/>
-    <sheet name="TAUTUSERPERMISSION" sheetId="9" r:id="rId10"/>
-    <sheet name="TBUSPROJECT" sheetId="10" r:id="rId11"/>
-    <sheet name="TBUSEVENT" sheetId="11" r:id="rId12"/>
-    <sheet name="TBUSPRJEVENT" sheetId="12" r:id="rId13"/>
-    <sheet name="TBUSPRJMEMBER" sheetId="13" r:id="rId14"/>
+    <sheet name="getVerifyCode" sheetId="18" r:id="rId2"/>
+    <sheet name="Login" sheetId="16" r:id="rId3"/>
+    <sheet name="Logout" sheetId="17" r:id="rId4"/>
+    <sheet name="表设计" sheetId="2" r:id="rId5"/>
+    <sheet name="ER" sheetId="15" r:id="rId6"/>
+    <sheet name="TMSTCOMP" sheetId="5" r:id="rId7"/>
+    <sheet name="TMSTDEPT" sheetId="4" r:id="rId8"/>
+    <sheet name="TMSTUSER" sheetId="3" r:id="rId9"/>
+    <sheet name="TMSTMENU" sheetId="6" r:id="rId10"/>
+    <sheet name="TAUTPERMISSIONGROUP" sheetId="7" r:id="rId11"/>
+    <sheet name="TAUTGROUPMENU" sheetId="8" r:id="rId12"/>
+    <sheet name="TAUTUSERPERMISSION" sheetId="9" r:id="rId13"/>
+    <sheet name="TBUSPROJECT" sheetId="10" r:id="rId14"/>
+    <sheet name="TBUSEVENT" sheetId="11" r:id="rId15"/>
+    <sheet name="TBUSPRJEVENT" sheetId="12" r:id="rId16"/>
+    <sheet name="TBUSPRJMEMBER" sheetId="13" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="312">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="348">
   <si>
     <t>接口清单</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1258,15 +1261,173 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>GetVerifyCode</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>admin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>管理员标记，0管理员，1普通用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入参</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "empcode":"0000",
+    "passwd":"asdasdadasdasdad",
+    "verifycode":"bcnx"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入参说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户编码，或者称为用户工号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加密后的密码，说明：密码使用rsa2048加密后转为16进制再传输</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>verifycode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>验证码，通过GetVerifyCode接口获取</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出参</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报文</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报文Header</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "code":2000,
+    "msg":"login success"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出参说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务状态，2000正常，其余详见msg参数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>msg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明文字</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://[your_owner_ip_or_domain]:[set_port]/api/v1.0/Login</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cookie</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>session，通过GetVerifyCode接口获取的session</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "Cookie":"some_cookie_item"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Login接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TMSTUSER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Logout接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://[your_owner_ip_or_domain]:[set_port]/api/v1.0/Logout</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "Cookie":"some_session_item"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getVerifyCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://[your_owner_ip_or_domain]:[set_port]/api/v1.0/getVerifyCode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{
+    "Content-Type":"image/png",
+    "Cookie":"some_session_item"
+}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>[bytes_string_object]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>压入验证码、验证码生成时间的session</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>body</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>png图片数据流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>session，通过getVerifyCode接口获取的session</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>getVerifyCode接口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1274,7 +1435,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1306,6 +1467,23 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1315,7 +1493,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -1323,13 +1501,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="double">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="double">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1342,9 +1556,34 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1679,31 +1918,34 @@
   <dimension ref="A1:K40"/>
   <sheetViews>
     <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="D25" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="F41" sqref="F41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="19" customWidth="1"/>
     <col min="5" max="5" width="45" customWidth="1"/>
-    <col min="6" max="6" width="21.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.875" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.6640625" customWidth="1"/>
+    <col min="9" max="9" width="22.625" customWidth="1"/>
     <col min="10" max="10" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1738,7 +1980,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1773,7 +2015,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1808,7 +2050,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1843,7 +2085,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1878,7 +2120,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
       </c>
@@ -1913,7 +2155,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>6</v>
       </c>
@@ -1948,7 +2190,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>7</v>
       </c>
@@ -1983,7 +2225,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>8</v>
       </c>
@@ -2018,7 +2260,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
@@ -2053,7 +2295,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>10</v>
       </c>
@@ -2088,7 +2330,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>11</v>
       </c>
@@ -2123,7 +2365,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>12</v>
       </c>
@@ -2158,7 +2400,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>13</v>
       </c>
@@ -2193,7 +2435,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="17" spans="1:11">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>14</v>
       </c>
@@ -2228,7 +2470,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="18" spans="1:11">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>15</v>
       </c>
@@ -2263,7 +2505,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="19" spans="1:11">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>16</v>
       </c>
@@ -2298,7 +2540,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="20" spans="1:11">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>17</v>
       </c>
@@ -2333,7 +2575,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="21" spans="1:11">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>18</v>
       </c>
@@ -2368,7 +2610,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="22" spans="1:11">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>19</v>
       </c>
@@ -2403,7 +2645,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="23" spans="1:11">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>20</v>
       </c>
@@ -2438,7 +2680,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="24" spans="1:11">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>21</v>
       </c>
@@ -2473,7 +2715,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="25" spans="1:11">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>22</v>
       </c>
@@ -2493,7 +2735,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="1:11">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>23</v>
       </c>
@@ -2513,7 +2755,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="1:11">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>24</v>
       </c>
@@ -2533,7 +2775,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="1:11">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>25</v>
       </c>
@@ -2553,7 +2795,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="1:11">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>26</v>
       </c>
@@ -2573,7 +2815,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="1:11">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>27</v>
       </c>
@@ -2593,7 +2835,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:11">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>28</v>
       </c>
@@ -2613,7 +2855,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:11">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>29</v>
       </c>
@@ -2633,7 +2875,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>30</v>
       </c>
@@ -2653,7 +2895,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>31</v>
       </c>
@@ -2673,7 +2915,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>32</v>
       </c>
@@ -2693,7 +2935,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>33</v>
       </c>
@@ -2713,7 +2955,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>34</v>
       </c>
@@ -2733,7 +2975,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>35</v>
       </c>
@@ -2752,8 +2994,23 @@
       <c r="F38" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="39" spans="1:6">
+      <c r="G38" t="s">
+        <v>335</v>
+      </c>
+      <c r="H38" t="s">
+        <v>335</v>
+      </c>
+      <c r="I38" t="s">
+        <v>334</v>
+      </c>
+      <c r="J38" t="s">
+        <v>335</v>
+      </c>
+      <c r="K38" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>36</v>
       </c>
@@ -2772,8 +3029,23 @@
       <c r="F39" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="40" spans="1:6">
+      <c r="G39" t="s">
+        <v>335</v>
+      </c>
+      <c r="H39" t="s">
+        <v>335</v>
+      </c>
+      <c r="I39" t="s">
+        <v>335</v>
+      </c>
+      <c r="J39" t="s">
+        <v>335</v>
+      </c>
+      <c r="K39" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>37</v>
       </c>
@@ -2790,7 +3062,22 @@
         <v>308</v>
       </c>
       <c r="F40" t="s">
-        <v>309</v>
+        <v>339</v>
+      </c>
+      <c r="G40" t="s">
+        <v>335</v>
+      </c>
+      <c r="H40" t="s">
+        <v>335</v>
+      </c>
+      <c r="I40" t="s">
+        <v>335</v>
+      </c>
+      <c r="J40" t="s">
+        <v>335</v>
+      </c>
+      <c r="K40" t="s">
+        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -2800,6 +3087,862 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB03D5A5-0734-4EBB-AAA3-9950AEEFB6BA}">
+  <dimension ref="A1:G32"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:A21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F4" t="s">
+        <v>144</v>
+      </c>
+      <c r="G4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D5" t="s">
+        <v>302</v>
+      </c>
+      <c r="E5" t="s">
+        <v>198</v>
+      </c>
+      <c r="G5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>200</v>
+      </c>
+      <c r="C6" t="s">
+        <v>209</v>
+      </c>
+      <c r="E6" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>201</v>
+      </c>
+      <c r="C7" t="s">
+        <v>210</v>
+      </c>
+      <c r="E7" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>206</v>
+      </c>
+      <c r="C8" t="s">
+        <v>211</v>
+      </c>
+      <c r="E8" t="s">
+        <v>198</v>
+      </c>
+      <c r="F8" t="s">
+        <v>208</v>
+      </c>
+      <c r="G8" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>202</v>
+      </c>
+      <c r="C9" t="s">
+        <v>196</v>
+      </c>
+      <c r="E9" t="s">
+        <v>198</v>
+      </c>
+      <c r="G9" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>204</v>
+      </c>
+      <c r="C10" t="s">
+        <v>196</v>
+      </c>
+      <c r="G10" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>156</v>
+      </c>
+      <c r="C11" t="s">
+        <v>146</v>
+      </c>
+      <c r="E11" t="s">
+        <v>151</v>
+      </c>
+      <c r="G11" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C12" t="s">
+        <v>158</v>
+      </c>
+      <c r="E12" t="s">
+        <v>151</v>
+      </c>
+      <c r="F12" t="s">
+        <v>159</v>
+      </c>
+      <c r="G12" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>160</v>
+      </c>
+      <c r="C13" t="s">
+        <v>146</v>
+      </c>
+      <c r="G13" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>161</v>
+      </c>
+      <c r="C14" t="s">
+        <v>158</v>
+      </c>
+      <c r="G14" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>162</v>
+      </c>
+      <c r="C15" t="s">
+        <v>146</v>
+      </c>
+      <c r="E15" t="s">
+        <v>151</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="str">
+        <f xml:space="preserve"> "create table "&amp;A1&amp;" ("</f>
+        <v>create table TMSTMENU (</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="str">
+        <f>B5&amp;" "&amp;C5&amp;IF(D5="Y"," PRIMARY KEY","")&amp;IF(E5="not null"," NOT NULL","")&amp;IF(F5="",""," default "&amp;F5)&amp;" ,"</f>
+        <v>menuid number PRIMARY KEY NOT NULL ,</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="str">
+        <f t="shared" ref="A22:A29" si="0">B6&amp;" "&amp;C6&amp;IF(D6="Y"," PRIMARY KEY","")&amp;IF(E6="not null"," NOT NULL","")&amp;IF(F6="",""," default "&amp;F6)&amp;" ,"</f>
+        <v>menucode varchar2(10) NOT NULL ,</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="str">
+        <f t="shared" si="0"/>
+        <v>mununame varchar2(30) NOT NULL ,</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="str">
+        <f t="shared" si="0"/>
+        <v>subject varchar2(5) NOT NULL default MST ,</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="str">
+        <f t="shared" si="0"/>
+        <v>level number NOT NULL ,</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="str">
+        <f t="shared" si="0"/>
+        <v>sortid number ,</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="str">
+        <f t="shared" si="0"/>
+        <v>createuser number NOT NULL ,</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="str">
+        <f t="shared" si="0"/>
+        <v>createdate date NOT NULL default sysdate ,</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="str">
+        <f t="shared" si="0"/>
+        <v>modifyuser number ,</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="str">
+        <f>B14&amp;" "&amp;C14&amp;IF(D14="Y"," PRIMARY KEY","")&amp;IF(E14="not null"," NOT NULL","")&amp;IF(F14="",""," default "&amp;F14)&amp;" ,"</f>
+        <v>modifydate date ,</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="str">
+        <f>B15&amp;" "&amp;C15&amp;IF(D15="Y"," PRIMARY KEY","")&amp;IF(E15="not null"," NOT NULL","")&amp;IF(F15="",""," default "&amp;F15)&amp;" ,"</f>
+        <v>status number NOT NULL default 0 ,</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" t="str">
+        <f>");"</f>
+        <v>);</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6685B170-BF94-43A9-9A01-EF0B83748FD1}">
+  <dimension ref="A1:G28"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:A28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F4" t="s">
+        <v>144</v>
+      </c>
+      <c r="G4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D5" t="s">
+        <v>302</v>
+      </c>
+      <c r="E5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G5" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>217</v>
+      </c>
+      <c r="C6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G6" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>215</v>
+      </c>
+      <c r="C7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G7" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C8" t="s">
+        <v>220</v>
+      </c>
+      <c r="G8" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>156</v>
+      </c>
+      <c r="C9" t="s">
+        <v>146</v>
+      </c>
+      <c r="E9" t="s">
+        <v>151</v>
+      </c>
+      <c r="G9" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>157</v>
+      </c>
+      <c r="C10" t="s">
+        <v>158</v>
+      </c>
+      <c r="E10" t="s">
+        <v>151</v>
+      </c>
+      <c r="F10" t="s">
+        <v>159</v>
+      </c>
+      <c r="G10" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>160</v>
+      </c>
+      <c r="C11" t="s">
+        <v>146</v>
+      </c>
+      <c r="G11" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>161</v>
+      </c>
+      <c r="C12" t="s">
+        <v>158</v>
+      </c>
+      <c r="G12" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>162</v>
+      </c>
+      <c r="C13" t="s">
+        <v>146</v>
+      </c>
+      <c r="E13" t="s">
+        <v>151</v>
+      </c>
+      <c r="F13" s="1">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="str">
+        <f xml:space="preserve"> "create table "&amp;A1&amp;" ("</f>
+        <v>create table TAUTPERMISSIONGROUP (</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="str">
+        <f t="shared" ref="A19:A27" si="0">B5&amp;" "&amp;C5&amp;IF(D5="Y"," PRIMARY KEY","")&amp;IF(E5="not null"," NOT NULL","")&amp;IF(F5="",""," default "&amp;F5)&amp;" ,"</f>
+        <v>pgroupid number PRIMARY KEY NOT NULL ,</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="str">
+        <f t="shared" si="0"/>
+        <v>pgroupcode varchar2(10) NOT NULL ,</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="str">
+        <f t="shared" si="0"/>
+        <v>pgroupname varchar2(15) NOT NULL ,</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="str">
+        <f t="shared" si="0"/>
+        <v>desc varchar2(50) ,</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="str">
+        <f t="shared" si="0"/>
+        <v>createuser number NOT NULL ,</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="str">
+        <f t="shared" si="0"/>
+        <v>createdate date NOT NULL default sysdate ,</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="str">
+        <f t="shared" si="0"/>
+        <v>modifyuser number ,</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="str">
+        <f t="shared" si="0"/>
+        <v>modifydate date ,</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="str">
+        <f t="shared" si="0"/>
+        <v>status number NOT NULL default 0 ,</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="str">
+        <f>");"</f>
+        <v>);</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EA6138C-4A64-49BC-828F-B36B33456D29}">
+  <dimension ref="A1:G25"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A16" sqref="A16:A25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F4" t="s">
+        <v>144</v>
+      </c>
+      <c r="G4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C5" t="s">
+        <v>196</v>
+      </c>
+      <c r="D5" t="s">
+        <v>302</v>
+      </c>
+      <c r="E5" t="s">
+        <v>198</v>
+      </c>
+      <c r="G5" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>194</v>
+      </c>
+      <c r="C6" t="s">
+        <v>196</v>
+      </c>
+      <c r="D6" t="s">
+        <v>302</v>
+      </c>
+      <c r="E6" t="s">
+        <v>198</v>
+      </c>
+      <c r="G6" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>156</v>
+      </c>
+      <c r="C7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G7" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>157</v>
+      </c>
+      <c r="C8" t="s">
+        <v>158</v>
+      </c>
+      <c r="E8" t="s">
+        <v>151</v>
+      </c>
+      <c r="F8" t="s">
+        <v>159</v>
+      </c>
+      <c r="G8" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>160</v>
+      </c>
+      <c r="C9" t="s">
+        <v>146</v>
+      </c>
+      <c r="G9" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>161</v>
+      </c>
+      <c r="C10" t="s">
+        <v>158</v>
+      </c>
+      <c r="G10" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>162</v>
+      </c>
+      <c r="C11" t="s">
+        <v>146</v>
+      </c>
+      <c r="E11" t="s">
+        <v>151</v>
+      </c>
+      <c r="F11" s="1">
+        <v>0</v>
+      </c>
+      <c r="G11" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" t="str">
+        <f xml:space="preserve"> "create table "&amp;A1&amp;" ("</f>
+        <v>create table TAUTGROUPMENU (</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="str">
+        <f>B5&amp;" "&amp;C5&amp;IF(E5="not null"," NOT NULL","")&amp;IF(F5="",""," default "&amp;F5)&amp;" ,"</f>
+        <v>pgroupid number NOT NULL ,</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="str">
+        <f t="shared" ref="A18:A23" si="0">B6&amp;" "&amp;C6&amp;IF(E6="not null"," NOT NULL","")&amp;IF(F6="",""," default "&amp;F6)&amp;" ,"</f>
+        <v>menuid number NOT NULL ,</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="str">
+        <f t="shared" si="0"/>
+        <v>createuser number NOT NULL ,</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="str">
+        <f t="shared" si="0"/>
+        <v>createdate date NOT NULL default sysdate ,</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="str">
+        <f t="shared" si="0"/>
+        <v>modifyuser number ,</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="str">
+        <f t="shared" si="0"/>
+        <v>modifydate date ,</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="str">
+        <f t="shared" si="0"/>
+        <v>status number NOT NULL default 0 ,</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="str">
+        <f>"PRIMARY KEY ("&amp;B5&amp;" ,"&amp;B6&amp;"),"</f>
+        <v>PRIMARY KEY (pgroupid ,menuid),</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="str">
+        <f>");"</f>
+        <v>);</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE7AD354-BB85-45D8-B200-584C4144CEC4}">
   <dimension ref="A1:G25"/>
   <sheetViews>
@@ -2807,29 +3950,29 @@
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.83203125" customWidth="1"/>
+    <col min="3" max="3" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>141</v>
       </c>
@@ -2852,7 +3995,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2872,7 +4015,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -2892,7 +4035,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
@@ -2909,7 +4052,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
@@ -2929,7 +4072,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5</v>
       </c>
@@ -2943,7 +4086,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
@@ -2957,7 +4100,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>7</v>
       </c>
@@ -2977,66 +4120,66 @@
         <v>163</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
         <f xml:space="preserve"> "create table "&amp;A1&amp;" ("</f>
         <v>create table TAUTUSERPERMISSION (</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
         <f>B5&amp;" "&amp;C5&amp;IF(E5="not null"," NOT NULL","")&amp;IF(F5="",""," default "&amp;F5)&amp;" ,"</f>
         <v>empid number NOT NULL ,</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f t="shared" ref="A18:A22" si="0">B6&amp;" "&amp;C6&amp;IF(E6="not null"," NOT NULL","")&amp;IF(F6="",""," default "&amp;F6)&amp;" ,"</f>
         <v>pgroupid number NOT NULL ,</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>createuser number NOT NULL ,</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>createdate date NOT NULL default sysdate ,</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>modifyuser number ,</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>modifydate date ,</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
         <f>B11&amp;" "&amp;C11&amp;IF(E11="not null"," NOT NULL","")&amp;IF(F11="",""," default "&amp;F11)&amp;" ,"</f>
         <v>status number NOT NULL default 0 ,</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
         <f>"PRIMARY KEY ("&amp;B5&amp;" ,"&amp;B6&amp;"),"</f>
         <v>PRIMARY KEY (empid ,pgroupid),</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
         <f>");"</f>
         <v>);</v>
@@ -3048,7 +4191,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B66EAD3-5661-4A32-8504-975CF94B532D}">
   <dimension ref="A1:G40"/>
   <sheetViews>
@@ -3056,23 +4199,23 @@
       <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>226</v>
       </c>
@@ -3083,7 +4226,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>227</v>
       </c>
@@ -3106,7 +4249,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -3126,7 +4269,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -3143,7 +4286,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
@@ -3160,7 +4303,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
@@ -3174,7 +4317,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5</v>
       </c>
@@ -3191,7 +4334,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
@@ -3208,7 +4351,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>7</v>
       </c>
@@ -3222,7 +4365,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>8</v>
       </c>
@@ -3236,7 +4379,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>9</v>
       </c>
@@ -3253,7 +4396,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>10</v>
       </c>
@@ -3267,7 +4410,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>11</v>
       </c>
@@ -3286,7 +4429,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>12</v>
       </c>
@@ -3307,7 +4450,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>13</v>
       </c>
@@ -3324,7 +4467,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>14</v>
       </c>
@@ -3341,7 +4484,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>15</v>
       </c>
@@ -3362,7 +4505,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -3370,7 +4513,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -3378,7 +4521,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>303</v>
       </c>
@@ -3389,7 +4532,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -3397,103 +4540,103 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
         <f xml:space="preserve"> "create table "&amp;A1&amp;" ("</f>
         <v>create table TBUSPROJECT (</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
         <f>B5&amp;" "&amp;C5&amp;IF(D5="Y"," PRIMARY KEY","")&amp;IF(E5="not null"," NOT NULL","")&amp;IF(F5="",""," default "&amp;F5)&amp;" ,"</f>
         <v>prjid number PRIMARY KEY NOT NULL ,</v>
       </c>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
         <f t="shared" ref="A26:A39" si="0">B6&amp;" "&amp;C6&amp;IF(D6="Y"," PRIMARY KEY","")&amp;IF(E6="not null"," NOT NULL","")&amp;IF(F6="",""," default "&amp;F6)&amp;" ,"</f>
         <v>prjcode varchar2(20) NOT NULL ,</v>
       </c>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>prjname varchar2(50) NOT NULL ,</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>cstid number ,</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>ownerid number NOT NULL ,</v>
       </c>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>sponsorid number NOT NULL ,</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
         <v>desc varchar2(2000) ,</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
         <v>goal varchar2(1000) ,</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
         <v>approvetime date default sysdate ,</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
         <v>expectedtime date ,</v>
       </c>
     </row>
-    <row r="35" spans="1:1">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
         <v>createuser number NOT NULL ,</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
         <v>createdate date NOT NULL default sysdate ,</v>
       </c>
     </row>
-    <row r="37" spans="1:1">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
         <v>modifyuser number ,</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
         <v>modifydate date ,</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="str">
         <f t="shared" si="0"/>
         <v>status number NOT NULL default 0 ,</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="str">
         <f>");"</f>
         <v>);</v>
@@ -3505,7 +4648,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96829F3A-DD9A-45E4-B6A0-8A0F2F5EDB37}">
   <dimension ref="A1:G27"/>
   <sheetViews>
@@ -3513,24 +4656,24 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.83203125" customWidth="1"/>
+    <col min="3" max="3" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>226</v>
       </c>
@@ -3541,7 +4684,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>227</v>
       </c>
@@ -3564,7 +4707,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -3584,7 +4727,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -3601,7 +4744,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
@@ -3621,7 +4764,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
@@ -3640,7 +4783,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5</v>
       </c>
@@ -3661,7 +4804,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
@@ -3678,7 +4821,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>7</v>
       </c>
@@ -3695,7 +4838,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>8</v>
       </c>
@@ -3716,7 +4859,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -3724,72 +4867,72 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
         <f xml:space="preserve"> "create table "&amp;A1&amp;" ("</f>
         <v>create table TBUSEVENT (</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f>B5&amp;" "&amp;C5&amp;IF(E5="not null"," NOT NULL","")&amp;IF(F5="",""," default "&amp;F5)&amp;" ,"</f>
         <v>eventid number NOT NULL ,</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f t="shared" ref="A19:A23" si="0">B6&amp;" "&amp;C6&amp;IF(E6="not null"," NOT NULL","")&amp;IF(F6="",""," default "&amp;F6)&amp;" ,"</f>
         <v>reporter number NOT NULL ,</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>reportertime date NOT NULL default sysdate ,</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>createuser number NOT NULL ,</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>createdate date NOT NULL default sysdate ,</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>modifyuser number ,</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
         <f>B11&amp;" "&amp;C11&amp;IF(E11="not null"," NOT NULL","")&amp;IF(F11="",""," default "&amp;F11)&amp;" ,"</f>
         <v>modifydate date ,</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
         <f>B12&amp;" "&amp;C12&amp;IF(E12="not null"," NOT NULL","")&amp;IF(F12="",""," default "&amp;F12)&amp;" ,"</f>
         <v>status number NOT NULL default 0 ,</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
         <f>"PRIMARY KEY ("&amp;B5&amp;"),"</f>
         <v>PRIMARY KEY (eventid),</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
         <f>");"</f>
         <v>);</v>
@@ -3801,7 +4944,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A7D2748-ABEF-4AB1-B723-B3FF73D6D441}">
   <dimension ref="A1:G30"/>
   <sheetViews>
@@ -3809,19 +4952,19 @@
       <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>226</v>
       </c>
@@ -3832,7 +4975,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>227</v>
       </c>
@@ -3855,7 +4998,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -3872,7 +5015,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -3889,7 +5032,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
@@ -3909,7 +5052,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
@@ -3926,7 +5069,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5</v>
       </c>
@@ -3943,7 +5086,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
@@ -3962,7 +5105,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>7</v>
       </c>
@@ -3983,7 +5126,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>8</v>
       </c>
@@ -4000,7 +5143,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>9</v>
       </c>
@@ -4017,7 +5160,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>10</v>
       </c>
@@ -4038,7 +5181,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -4046,78 +5189,78 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f xml:space="preserve"> "create table "&amp;A1&amp;" ("</f>
         <v>create table TBUSPRJEVENT (</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f t="shared" ref="A20:A29" si="0">B5&amp;" "&amp;C5&amp;IF(D5="Y"," PRIMARY KEY","")&amp;IF(E5="not null"," NOT NULL","")&amp;IF(F5="",""," default "&amp;F5)&amp;" ,"</f>
         <v>prjid number NOT NULL ,</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>eventid number NOT NULL ,</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>leafid number PRIMARY KEY NOT NULL ,</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>depth number NOT NULL ,</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>parentid number NOT NULL ,</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>createuser number NOT NULL ,</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>createdate date NOT NULL default sysdate ,</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>modifyuser number ,</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>modifydate date ,</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>status number NOT NULL default 0 ,</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
         <f>");"</f>
         <v>);</v>
@@ -4129,7 +5272,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B19AF1C-C73E-49E1-8642-644C43AB355B}">
   <dimension ref="A1:G25"/>
   <sheetViews>
@@ -4137,24 +5280,24 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.83203125" customWidth="1"/>
+    <col min="3" max="3" width="7.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>226</v>
       </c>
@@ -4165,7 +5308,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>227</v>
       </c>
@@ -4188,7 +5331,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -4208,7 +5351,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -4228,7 +5371,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
@@ -4247,7 +5390,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
@@ -4268,7 +5411,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5</v>
       </c>
@@ -4285,7 +5428,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
@@ -4302,7 +5445,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>7</v>
       </c>
@@ -4323,66 +5466,66 @@
         <v>259</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="str">
         <f xml:space="preserve"> "create table "&amp;A1&amp;" ("</f>
         <v>create table TBUSPRJMEMBER (</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="str">
         <f t="shared" ref="A17:A23" si="0">B5&amp;" "&amp;C5&amp;IF(D5="Y"," PRIMARY KEY","")&amp;IF(E5="not null"," NOT NULL","")&amp;IF(F5="",""," default "&amp;F5)&amp;" ,"</f>
         <v>prjid number PRIMARY KEY NOT NULL ,</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>empid number PRIMARY KEY NOT NULL ,</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>createuser number NOT NULL ,</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>createdate date NOT NULL default sysdate ,</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>modifyuser number ,</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>modifydate date ,</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>status number NOT NULL default 0 ,</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
         <f>"PRIMARY KEY ("&amp;B5&amp;" ,"&amp;B6&amp;"),"</f>
         <v>PRIMARY KEY (prjid ,empid),</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
         <f>");"</f>
         <v>);</v>
@@ -4395,6 +5538,449 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D929342-8B56-46A7-968F-E576A556591A}">
+  <dimension ref="A1:B19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="21" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="B1" s="9"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="B4" s="6"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B5" s="7"/>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="B6" s="7"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="B7" s="6"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="B12" s="6"/>
+    </row>
+    <row r="13" spans="1:2" ht="57" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="B15" s="6"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="11" t="s">
+        <v>330</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="8"/>
+      <c r="B18" s="8"/>
+    </row>
+    <row r="19" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A15:B15"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{466A387B-BC81-49A1-A408-01C17348B00E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A2AD968-499C-4826-A39F-D90C89973BC5}">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="21" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>333</v>
+      </c>
+      <c r="B1" s="9"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="B4" s="6"/>
+    </row>
+    <row r="5" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="B7" s="6"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="B12" s="6"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="1:2" ht="57" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="B15" s="6"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{2EC0B4C9-3E47-4189-A612-1D2FEC9F6674}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30D35525-84E8-4AD3-8D45-E2CE9905C83B}">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="21" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
+        <v>336</v>
+      </c>
+      <c r="B1" s="9"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>328</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="B4" s="6"/>
+    </row>
+    <row r="5" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="B6" s="7"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="B7" s="6"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="B12" s="6"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="B13" s="4"/>
+    </row>
+    <row r="14" spans="1:2" ht="57" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="B15" s="6"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="B17" s="8" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A15:B15"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{63287719-E6A6-4963-A405-86133F09146E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C94F757-C681-4445-BD1E-9A20E277268C}">
   <dimension ref="A1:D13"/>
   <sheetViews>
@@ -4402,18 +5988,18 @@
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="23.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -4427,7 +6013,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4441,7 +6027,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2</v>
       </c>
@@ -4455,7 +6041,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>3</v>
       </c>
@@ -4469,7 +6055,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>4</v>
       </c>
@@ -4483,7 +6069,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>5</v>
       </c>
@@ -4497,7 +6083,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>6</v>
       </c>
@@ -4511,7 +6097,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>7</v>
       </c>
@@ -4525,7 +6111,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>8</v>
       </c>
@@ -4539,7 +6125,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -4553,7 +6139,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>10</v>
       </c>
@@ -4567,7 +6153,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>11</v>
       </c>
@@ -4587,7 +6173,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94326767-D9A5-4012-88D0-4A8C8B00FBE6}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -4595,14 +6181,14 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11229516-9F53-41D5-B3C5-685E6451A681}">
   <dimension ref="A1:G48"/>
   <sheetViews>
@@ -4610,29 +6196,29 @@
       <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>141</v>
       </c>
@@ -4655,7 +6241,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -4675,7 +6261,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -4692,7 +6278,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
@@ -4709,7 +6295,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
@@ -4723,7 +6309,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5</v>
       </c>
@@ -4737,7 +6323,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
@@ -4754,7 +6340,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>7</v>
       </c>
@@ -4774,7 +6360,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>8</v>
       </c>
@@ -4788,7 +6374,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>9</v>
       </c>
@@ -4802,7 +6388,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>10</v>
       </c>
@@ -4822,154 +6408,154 @@
         <v>163</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f xml:space="preserve"> "create table "&amp;A1&amp;" ("</f>
         <v>create table TMSTCOMP (</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f>B5&amp;" "&amp;C5&amp;IF(D5="Y"," PRIMARY KEY","")&amp;IF(E5="not null"," NOT NULL","")&amp;IF(F5="",""," default "&amp;F5)&amp;" ,"</f>
         <v>compid number PRIMARY KEY NOT NULL ,</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <f>B6&amp;" "&amp;C6&amp;IF(D6="Y"," PRIMARY KEY","")&amp;IF(E6="not null"," NOT NULL","")&amp;IF(F6="",""," default "&amp;F6)&amp;" ,"</f>
         <v>compcode varchar2(10) NOT NULL ,</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <f>B7&amp;" "&amp;C7&amp;IF(D7="Y"," PRIMARY KEY","")&amp;IF(E7="not null"," NOT NULL","")&amp;IF(F7="",""," default "&amp;F7)&amp;" ,"</f>
         <v>compname varchar2(15) NOT NULL ,</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
         <f>B8&amp;" "&amp;C8&amp;IF(D8="Y"," PRIMARY KEY","")&amp;IF(E8="not null"," NOT NULL","")&amp;IF(F8="",""," default "&amp;F8)&amp;" ,"</f>
         <v>compadd varchar2(30) ,</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
         <f>B9&amp;" "&amp;C9&amp;IF(D9="Y"," PRIMARY KEY","")&amp;IF(E9="not null"," NOT NULL","")&amp;IF(F9="",""," default "&amp;F9)&amp;" ,"</f>
         <v>uscicode varchar2(20) ,</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
         <f t="shared" ref="A25:A28" si="0">B10&amp;" "&amp;C10&amp;IF(D10="Y"," PRIMARY KEY","")&amp;IF(E10="not null"," NOT NULL","")&amp;IF(F10="",""," default "&amp;F10)&amp;" ,"</f>
         <v>createuser number NOT NULL ,</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>createdate date NOT NULL default sysdate ,</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>modifyuser number ,</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>modifydate date ,</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" t="str">
         <f>B14&amp;" "&amp;C14&amp;IF(D14="Y"," PRIMARY KEY","")&amp;IF(E14="not null"," NOT NULL","")&amp;IF(F14="",""," default "&amp;F14)&amp;" ,"</f>
         <v>status number NOT NULL default 0 ,</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" t="str">
         <f t="shared" ref="A30" si="1">");"</f>
         <v>);</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="str">
         <f>"comment on table "&amp;A1&amp;" is "&amp;"'"&amp;A2&amp;"';"</f>
         <v>comment on table TMSTCOMP is '公司表';</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="38" spans="1:1">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="str">
         <f xml:space="preserve"> "comment on column "&amp;A1&amp;"."&amp;B5&amp;" is "&amp;"'"&amp;G5&amp;"';"</f>
         <v>comment on column TMSTCOMP.compid is 'PK，公司内码';</v>
       </c>
     </row>
-    <row r="39" spans="1:1">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="str">
         <f xml:space="preserve"> "comment on column "&amp;A1&amp;"."&amp;B6&amp;" is "&amp;"'"&amp;G6&amp;"';"</f>
         <v>comment on column TMSTCOMP.compcode is '公司编码';</v>
       </c>
     </row>
-    <row r="40" spans="1:1">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="str">
         <f xml:space="preserve"> "comment on column "&amp;A1&amp;"."&amp;B7&amp;" is "&amp;"'"&amp;G7&amp;"';"</f>
         <v>comment on column TMSTCOMP.compname is '公司名';</v>
       </c>
     </row>
-    <row r="41" spans="1:1">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="str">
         <f xml:space="preserve"> "comment on column "&amp;A1&amp;"."&amp;B8&amp;" is "&amp;"'"&amp;G8&amp;"';"</f>
         <v>comment on column TMSTCOMP.compadd is '公司注册地址';</v>
       </c>
     </row>
-    <row r="42" spans="1:1">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="str">
         <f xml:space="preserve"> "comment on column "&amp;A1&amp;"."&amp;B9&amp;" is "&amp;"'"&amp;G9&amp;"';"</f>
         <v>comment on column TMSTCOMP.uscicode is '统一社会信用代码';</v>
       </c>
     </row>
-    <row r="44" spans="1:1">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" t="str">
         <f xml:space="preserve"> "comment on column "&amp;A1&amp;"."&amp;B10&amp;" is "&amp;"'"&amp;G10&amp;"';"</f>
         <v>comment on column TMSTCOMP.createuser is '创建人内码';</v>
       </c>
     </row>
-    <row r="45" spans="1:1">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" t="str">
         <f xml:space="preserve"> "comment on column "&amp;A1&amp;"."&amp;B11&amp;" is "&amp;"'"&amp;G11&amp;"';"</f>
         <v>comment on column TMSTCOMP.createdate is '创建时间';</v>
       </c>
     </row>
-    <row r="46" spans="1:1">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" t="str">
         <f xml:space="preserve"> "comment on column "&amp;A1&amp;"."&amp;B12&amp;" is "&amp;"'"&amp;G12&amp;"';"</f>
         <v>comment on column TMSTCOMP.modifyuser is '修改人内码';</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" t="str">
         <f xml:space="preserve"> "comment on column "&amp;A1&amp;"."&amp;B13&amp;" is "&amp;"'"&amp;G13&amp;"';"</f>
         <v>comment on column TMSTCOMP.modifydate is '修改时间';</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" t="str">
         <f xml:space="preserve"> "comment on column "&amp;A1&amp;"."&amp;B14&amp;" is "&amp;"'"&amp;G14&amp;"';"</f>
         <v>comment on column TMSTCOMP.status is '状态位，0正常，1停用';</v>
@@ -4981,7 +6567,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A621814-3F40-42DB-95AD-20D354D5B23F}">
   <dimension ref="A1:G28"/>
   <sheetViews>
@@ -4989,29 +6575,29 @@
       <selection activeCell="A16" sqref="A16:A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>141</v>
       </c>
@@ -5034,7 +6620,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
@@ -5054,7 +6640,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
@@ -5071,7 +6657,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
@@ -5088,7 +6674,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
@@ -5102,7 +6688,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5</v>
       </c>
@@ -5119,7 +6705,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
@@ -5139,7 +6725,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>7</v>
       </c>
@@ -5153,7 +6739,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>8</v>
       </c>
@@ -5167,7 +6753,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>9</v>
       </c>
@@ -5187,1019 +6773,72 @@
         <v>163</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="str">
         <f xml:space="preserve"> "create table "&amp;A1&amp;" ("</f>
         <v>create table TMSTDEPT (</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="str">
         <f>B5&amp;" "&amp;C5&amp;IF(D5="Y"," PRIMARY KEY","")&amp;IF(E5="not null"," NOT NULL","")&amp;IF(F5="",""," default "&amp;F5)&amp;" ,"</f>
         <v>deptid number PRIMARY KEY NOT NULL ,</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" t="str">
         <f t="shared" ref="A20:A27" si="0">B6&amp;" "&amp;C6&amp;IF(D6="Y"," PRIMARY KEY","")&amp;IF(E6="not null"," NOT NULL","")&amp;IF(F6="",""," default "&amp;F6)&amp;" ,"</f>
         <v>deptcode varchar2(10) NOT NULL ,</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>deptname varchar2(15) NOT NULL ,</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>deptlocation varchar2(30) ,</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>createuser number NOT NULL ,</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>createdate date NOT NULL default sysdate ,</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>modifyuser number ,</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>modifydate date ,</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>status number NOT NULL default 0 ,</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="str">
-        <f>");"</f>
-        <v>);</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFFBCCB0-C9B3-442E-8A5D-EC6C21539DC1}">
-  <dimension ref="A1:G31"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>141</v>
-      </c>
-      <c r="B4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D4" t="s">
-        <v>223</v>
-      </c>
-      <c r="E4" t="s">
-        <v>147</v>
-      </c>
-      <c r="F4" t="s">
-        <v>144</v>
-      </c>
-      <c r="G4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C5" t="s">
-        <v>146</v>
-      </c>
-      <c r="D5" t="s">
-        <v>302</v>
-      </c>
-      <c r="E5" t="s">
-        <v>151</v>
-      </c>
-      <c r="G5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>167</v>
-      </c>
-      <c r="C6" t="s">
-        <v>149</v>
-      </c>
-      <c r="E6" t="s">
-        <v>151</v>
-      </c>
-      <c r="G6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>148</v>
-      </c>
-      <c r="C7" t="s">
-        <v>150</v>
-      </c>
-      <c r="E7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G7" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>152</v>
-      </c>
-      <c r="C8" t="s">
-        <v>153</v>
-      </c>
-      <c r="E8" t="s">
-        <v>151</v>
-      </c>
-      <c r="G8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>154</v>
-      </c>
-      <c r="C9" t="s">
-        <v>146</v>
-      </c>
-      <c r="E9" t="s">
-        <v>151</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>156</v>
-      </c>
-      <c r="C10" t="s">
-        <v>146</v>
-      </c>
-      <c r="E10" t="s">
-        <v>151</v>
-      </c>
-      <c r="G10" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C11" t="s">
-        <v>158</v>
-      </c>
-      <c r="E11" t="s">
-        <v>151</v>
-      </c>
-      <c r="F11" t="s">
-        <v>159</v>
-      </c>
-      <c r="G11" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>160</v>
-      </c>
-      <c r="C12" t="s">
-        <v>146</v>
-      </c>
-      <c r="G12" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>9</v>
-      </c>
-      <c r="B13" t="s">
-        <v>161</v>
-      </c>
-      <c r="C13" t="s">
-        <v>158</v>
-      </c>
-      <c r="G13" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>10</v>
-      </c>
-      <c r="B14" t="s">
-        <v>162</v>
-      </c>
-      <c r="C14" t="s">
-        <v>146</v>
-      </c>
-      <c r="E14" t="s">
-        <v>151</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>11</v>
-      </c>
-      <c r="B15" t="s">
-        <v>310</v>
-      </c>
-      <c r="C15" t="s">
-        <v>146</v>
-      </c>
-      <c r="E15" t="s">
-        <v>151</v>
-      </c>
-      <c r="F15" s="1">
-        <v>1</v>
-      </c>
-      <c r="G15" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="str">
-        <f xml:space="preserve"> "create table "&amp;A1&amp;" ("</f>
-        <v>create table TMSTUSER (</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="str">
-        <f t="shared" ref="A20:A30" si="0">B5&amp;" "&amp;C5&amp;IF(D5="Y"," PRIMARY KEY","")&amp;IF(E5="not null"," NOT NULL","")&amp;IF(F5="",""," default "&amp;F5)&amp;" ,"</f>
-        <v>empid number PRIMARY KEY NOT NULL ,</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="str">
-        <f t="shared" si="0"/>
-        <v>empcode varchar2(10) NOT NULL ,</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="str">
-        <f t="shared" si="0"/>
-        <v>empname varchar2(15) NOT NULL ,</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="str">
-        <f t="shared" si="0"/>
-        <v>passwd varchar2(30) NOT NULL ,</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="str">
-        <f t="shared" si="0"/>
-        <v>sex number NOT NULL default 1 ,</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="str">
-        <f t="shared" si="0"/>
-        <v>createuser number NOT NULL ,</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="str">
-        <f t="shared" si="0"/>
-        <v>createdate date NOT NULL default sysdate ,</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="str">
-        <f t="shared" si="0"/>
-        <v>modifyuser number ,</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="str">
-        <f t="shared" si="0"/>
-        <v>modifydate date ,</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="str">
-        <f t="shared" si="0"/>
-        <v>status number NOT NULL default 0 ,</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="str">
-        <f t="shared" si="0"/>
-        <v>admin number NOT NULL default 1 ,</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="str">
-        <f>");"</f>
-        <v>);</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB03D5A5-0734-4EBB-AAA3-9950AEEFB6BA}">
-  <dimension ref="A1:G32"/>
-  <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:A21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>141</v>
-      </c>
-      <c r="B4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D4" t="s">
-        <v>223</v>
-      </c>
-      <c r="E4" t="s">
-        <v>147</v>
-      </c>
-      <c r="F4" t="s">
-        <v>144</v>
-      </c>
-      <c r="G4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>194</v>
-      </c>
-      <c r="C5" t="s">
-        <v>196</v>
-      </c>
-      <c r="D5" t="s">
-        <v>302</v>
-      </c>
-      <c r="E5" t="s">
-        <v>198</v>
-      </c>
-      <c r="G5" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>200</v>
-      </c>
-      <c r="C6" t="s">
-        <v>209</v>
-      </c>
-      <c r="E6" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>201</v>
-      </c>
-      <c r="C7" t="s">
-        <v>210</v>
-      </c>
-      <c r="E7" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>206</v>
-      </c>
-      <c r="C8" t="s">
-        <v>211</v>
-      </c>
-      <c r="E8" t="s">
-        <v>198</v>
-      </c>
-      <c r="F8" t="s">
-        <v>208</v>
-      </c>
-      <c r="G8" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>202</v>
-      </c>
-      <c r="C9" t="s">
-        <v>196</v>
-      </c>
-      <c r="E9" t="s">
-        <v>198</v>
-      </c>
-      <c r="G9" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>204</v>
-      </c>
-      <c r="C10" t="s">
-        <v>196</v>
-      </c>
-      <c r="G10" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
-        <v>156</v>
-      </c>
-      <c r="C11" t="s">
-        <v>146</v>
-      </c>
-      <c r="E11" t="s">
-        <v>151</v>
-      </c>
-      <c r="G11" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>157</v>
-      </c>
-      <c r="C12" t="s">
-        <v>158</v>
-      </c>
-      <c r="E12" t="s">
-        <v>151</v>
-      </c>
-      <c r="F12" t="s">
-        <v>159</v>
-      </c>
-      <c r="G12" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>9</v>
-      </c>
-      <c r="B13" t="s">
-        <v>160</v>
-      </c>
-      <c r="C13" t="s">
-        <v>146</v>
-      </c>
-      <c r="G13" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>10</v>
-      </c>
-      <c r="B14" t="s">
-        <v>161</v>
-      </c>
-      <c r="C14" t="s">
-        <v>158</v>
-      </c>
-      <c r="G14" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>11</v>
-      </c>
-      <c r="B15" t="s">
-        <v>162</v>
-      </c>
-      <c r="C15" t="s">
-        <v>146</v>
-      </c>
-      <c r="E15" t="s">
-        <v>151</v>
-      </c>
-      <c r="F15" s="1">
-        <v>0</v>
-      </c>
-      <c r="G15" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="str">
-        <f xml:space="preserve"> "create table "&amp;A1&amp;" ("</f>
-        <v>create table TMSTMENU (</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="str">
-        <f>B5&amp;" "&amp;C5&amp;IF(D5="Y"," PRIMARY KEY","")&amp;IF(E5="not null"," NOT NULL","")&amp;IF(F5="",""," default "&amp;F5)&amp;" ,"</f>
-        <v>menuid number PRIMARY KEY NOT NULL ,</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="str">
-        <f t="shared" ref="A22:A29" si="0">B6&amp;" "&amp;C6&amp;IF(D6="Y"," PRIMARY KEY","")&amp;IF(E6="not null"," NOT NULL","")&amp;IF(F6="",""," default "&amp;F6)&amp;" ,"</f>
-        <v>menucode varchar2(10) NOT NULL ,</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="str">
-        <f t="shared" si="0"/>
-        <v>mununame varchar2(30) NOT NULL ,</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="str">
-        <f t="shared" si="0"/>
-        <v>subject varchar2(5) NOT NULL default MST ,</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="str">
-        <f t="shared" si="0"/>
-        <v>level number NOT NULL ,</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="str">
-        <f t="shared" si="0"/>
-        <v>sortid number ,</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="str">
-        <f t="shared" si="0"/>
-        <v>createuser number NOT NULL ,</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="str">
-        <f t="shared" si="0"/>
-        <v>createdate date NOT NULL default sysdate ,</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="str">
-        <f t="shared" si="0"/>
-        <v>modifyuser number ,</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="str">
-        <f>B14&amp;" "&amp;C14&amp;IF(D14="Y"," PRIMARY KEY","")&amp;IF(E14="not null"," NOT NULL","")&amp;IF(F14="",""," default "&amp;F14)&amp;" ,"</f>
-        <v>modifydate date ,</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="str">
-        <f>B15&amp;" "&amp;C15&amp;IF(D15="Y"," PRIMARY KEY","")&amp;IF(E15="not null"," NOT NULL","")&amp;IF(F15="",""," default "&amp;F15)&amp;" ,"</f>
-        <v>status number NOT NULL default 0 ,</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="str">
-        <f>");"</f>
-        <v>);</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6685B170-BF94-43A9-9A01-EF0B83748FD1}">
-  <dimension ref="A1:G28"/>
-  <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:A28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>141</v>
-      </c>
-      <c r="B4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D4" t="s">
-        <v>223</v>
-      </c>
-      <c r="E4" t="s">
-        <v>147</v>
-      </c>
-      <c r="F4" t="s">
-        <v>144</v>
-      </c>
-      <c r="G4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>213</v>
-      </c>
-      <c r="C5" t="s">
-        <v>146</v>
-      </c>
-      <c r="D5" t="s">
-        <v>302</v>
-      </c>
-      <c r="E5" t="s">
-        <v>151</v>
-      </c>
-      <c r="G5" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>217</v>
-      </c>
-      <c r="C6" t="s">
-        <v>149</v>
-      </c>
-      <c r="E6" t="s">
-        <v>151</v>
-      </c>
-      <c r="G6" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>215</v>
-      </c>
-      <c r="C7" t="s">
-        <v>150</v>
-      </c>
-      <c r="E7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G7" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>101</v>
-      </c>
-      <c r="C8" t="s">
-        <v>220</v>
-      </c>
-      <c r="G8" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>156</v>
-      </c>
-      <c r="C9" t="s">
-        <v>146</v>
-      </c>
-      <c r="E9" t="s">
-        <v>151</v>
-      </c>
-      <c r="G9" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>157</v>
-      </c>
-      <c r="C10" t="s">
-        <v>158</v>
-      </c>
-      <c r="E10" t="s">
-        <v>151</v>
-      </c>
-      <c r="F10" t="s">
-        <v>159</v>
-      </c>
-      <c r="G10" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
-        <v>160</v>
-      </c>
-      <c r="C11" t="s">
-        <v>146</v>
-      </c>
-      <c r="G11" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>161</v>
-      </c>
-      <c r="C12" t="s">
-        <v>158</v>
-      </c>
-      <c r="G12" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>9</v>
-      </c>
-      <c r="B13" t="s">
-        <v>162</v>
-      </c>
-      <c r="C13" t="s">
-        <v>146</v>
-      </c>
-      <c r="E13" t="s">
-        <v>151</v>
-      </c>
-      <c r="F13" s="1">
-        <v>0</v>
-      </c>
-      <c r="G13" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="str">
-        <f xml:space="preserve"> "create table "&amp;A1&amp;" ("</f>
-        <v>create table TAUTPERMISSIONGROUP (</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="str">
-        <f t="shared" ref="A19:A27" si="0">B5&amp;" "&amp;C5&amp;IF(D5="Y"," PRIMARY KEY","")&amp;IF(E5="not null"," NOT NULL","")&amp;IF(F5="",""," default "&amp;F5)&amp;" ,"</f>
-        <v>pgroupid number PRIMARY KEY NOT NULL ,</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="str">
-        <f t="shared" si="0"/>
-        <v>pgroupcode varchar2(10) NOT NULL ,</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="str">
-        <f t="shared" si="0"/>
-        <v>pgroupname varchar2(15) NOT NULL ,</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="str">
-        <f t="shared" si="0"/>
-        <v>desc varchar2(50) ,</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="str">
-        <f t="shared" si="0"/>
-        <v>createuser number NOT NULL ,</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="str">
-        <f t="shared" si="0"/>
-        <v>createdate date NOT NULL default sysdate ,</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="str">
-        <f t="shared" si="0"/>
-        <v>modifyuser number ,</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="str">
-        <f t="shared" si="0"/>
-        <v>modifydate date ,</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="str">
-        <f t="shared" si="0"/>
-        <v>status number NOT NULL default 0 ,</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" t="str">
         <f>");"</f>
         <v>);</v>
@@ -6212,34 +6851,36 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EA6138C-4A64-49BC-828F-B36B33456D29}">
-  <dimension ref="A1:G25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFFBCCB0-C9B3-442E-8A5D-EC6C21539DC1}">
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:A25"/>
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>141</v>
       </c>
@@ -6262,192 +6903,281 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>213</v>
+        <v>145</v>
       </c>
       <c r="C5" t="s">
-        <v>196</v>
+        <v>146</v>
       </c>
       <c r="D5" t="s">
         <v>302</v>
       </c>
       <c r="E5" t="s">
-        <v>198</v>
+        <v>151</v>
       </c>
       <c r="G5" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>194</v>
+        <v>167</v>
       </c>
       <c r="C6" t="s">
-        <v>196</v>
-      </c>
-      <c r="D6" t="s">
-        <v>302</v>
+        <v>149</v>
       </c>
       <c r="E6" t="s">
-        <v>198</v>
+        <v>151</v>
       </c>
       <c r="G6" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="C7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="E7" t="s">
         <v>151</v>
       </c>
       <c r="G7" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="C8" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="E8" t="s">
         <v>151</v>
       </c>
-      <c r="F8" t="s">
-        <v>159</v>
-      </c>
       <c r="G8" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="C9" t="s">
         <v>146</v>
       </c>
+      <c r="E9" t="s">
+        <v>151</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
       <c r="G9" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="C10" t="s">
-        <v>158</v>
+        <v>146</v>
+      </c>
+      <c r="E10" t="s">
+        <v>151</v>
       </c>
       <c r="G10" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>7</v>
       </c>
       <c r="B11" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C11" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="E11" t="s">
         <v>151</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" t="s">
+        <v>159</v>
+      </c>
+      <c r="G11" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C12" t="s">
+        <v>146</v>
+      </c>
+      <c r="G12" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>161</v>
+      </c>
+      <c r="C13" t="s">
+        <v>158</v>
+      </c>
+      <c r="G13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>162</v>
+      </c>
+      <c r="C14" t="s">
+        <v>146</v>
+      </c>
+      <c r="E14" t="s">
+        <v>151</v>
+      </c>
+      <c r="F14" s="1">
         <v>0</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G14" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>309</v>
+      </c>
+      <c r="C15" t="s">
+        <v>146</v>
+      </c>
+      <c r="E15" t="s">
+        <v>151</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="str">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="str">
         <f xml:space="preserve"> "create table "&amp;A1&amp;" ("</f>
-        <v>create table TAUTGROUPMENU (</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="str">
-        <f>B5&amp;" "&amp;C5&amp;IF(E5="not null"," NOT NULL","")&amp;IF(F5="",""," default "&amp;F5)&amp;" ,"</f>
-        <v>pgroupid number NOT NULL ,</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="str">
-        <f t="shared" ref="A18:A23" si="0">B6&amp;" "&amp;C6&amp;IF(E6="not null"," NOT NULL","")&amp;IF(F6="",""," default "&amp;F6)&amp;" ,"</f>
-        <v>menuid number NOT NULL ,</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="str">
+        <v>create table TMSTUSER (</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="str">
+        <f t="shared" ref="A20:A30" si="0">B5&amp;" "&amp;C5&amp;IF(D5="Y"," PRIMARY KEY","")&amp;IF(E5="not null"," NOT NULL","")&amp;IF(F5="",""," default "&amp;F5)&amp;" ,"</f>
+        <v>empid number PRIMARY KEY NOT NULL ,</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="str">
+        <f t="shared" si="0"/>
+        <v>empcode varchar2(10) NOT NULL ,</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="str">
+        <f t="shared" si="0"/>
+        <v>empname varchar2(15) NOT NULL ,</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="str">
+        <f t="shared" si="0"/>
+        <v>passwd varchar2(30) NOT NULL ,</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="str">
+        <f t="shared" si="0"/>
+        <v>sex number NOT NULL default 1 ,</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>createuser number NOT NULL ,</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="str">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>createdate date NOT NULL default sysdate ,</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="str">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>modifyuser number ,</v>
       </c>
     </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="str">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>modifydate date ,</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="str">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>status number NOT NULL default 0 ,</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="str">
-        <f>"PRIMARY KEY ("&amp;B5&amp;" ,"&amp;B6&amp;"),"</f>
-        <v>PRIMARY KEY (pgroupid ,menuid),</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="str">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="str">
+        <f t="shared" si="0"/>
+        <v>admin number NOT NULL default 1 ,</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="str">
         <f>");"</f>
         <v>);</v>
       </c>

--- a/doc/设计文档.xlsx
+++ b/doc/设计文档.xlsx
@@ -8,28 +8,29 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dev_prj\pyProjectEventSystem_v2\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38B64CDF-9FC9-4D91-8F03-7B098CC69875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF09C31D-DD60-4FA7-A2A3-94BDAA496324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="820" activeTab="1" xr2:uid="{883248E0-534C-4554-ABE7-C4D8C7626446}"/>
   </bookViews>
   <sheets>
-    <sheet name="接口设计" sheetId="1" r:id="rId1"/>
-    <sheet name="getVerifyCode" sheetId="18" r:id="rId2"/>
-    <sheet name="Login" sheetId="16" r:id="rId3"/>
-    <sheet name="Logout" sheetId="17" r:id="rId4"/>
-    <sheet name="表设计" sheetId="2" r:id="rId5"/>
-    <sheet name="ER" sheetId="15" r:id="rId6"/>
-    <sheet name="TMSTCOMP" sheetId="5" r:id="rId7"/>
-    <sheet name="TMSTDEPT" sheetId="4" r:id="rId8"/>
-    <sheet name="TMSTUSER" sheetId="3" r:id="rId9"/>
-    <sheet name="TMSTMENU" sheetId="6" r:id="rId10"/>
-    <sheet name="TAUTPERMISSIONGROUP" sheetId="7" r:id="rId11"/>
-    <sheet name="TAUTGROUPMENU" sheetId="8" r:id="rId12"/>
-    <sheet name="TAUTUSERPERMISSION" sheetId="9" r:id="rId13"/>
-    <sheet name="TBUSPROJECT" sheetId="10" r:id="rId14"/>
-    <sheet name="TBUSEVENT" sheetId="11" r:id="rId15"/>
-    <sheet name="TBUSPRJEVENT" sheetId="12" r:id="rId16"/>
-    <sheet name="TBUSPRJMEMBER" sheetId="13" r:id="rId17"/>
+    <sheet name="功能设计" sheetId="19" r:id="rId1"/>
+    <sheet name="接口设计" sheetId="1" r:id="rId2"/>
+    <sheet name="getVerifyCode" sheetId="18" r:id="rId3"/>
+    <sheet name="Login" sheetId="16" r:id="rId4"/>
+    <sheet name="Logout" sheetId="17" r:id="rId5"/>
+    <sheet name="表设计" sheetId="2" r:id="rId6"/>
+    <sheet name="ER" sheetId="15" r:id="rId7"/>
+    <sheet name="TMSTCOMP" sheetId="5" r:id="rId8"/>
+    <sheet name="TMSTDEPT" sheetId="4" r:id="rId9"/>
+    <sheet name="TMSTUSER" sheetId="3" r:id="rId10"/>
+    <sheet name="TMSTMENU" sheetId="6" r:id="rId11"/>
+    <sheet name="TAUTPERMISSIONGROUP" sheetId="7" r:id="rId12"/>
+    <sheet name="TAUTGROUPMENU" sheetId="8" r:id="rId13"/>
+    <sheet name="TAUTUSERPERMISSION" sheetId="9" r:id="rId14"/>
+    <sheet name="TBUSPROJECT" sheetId="10" r:id="rId15"/>
+    <sheet name="TBUSEVENT" sheetId="11" r:id="rId16"/>
+    <sheet name="TBUSPRJEVENT" sheetId="12" r:id="rId17"/>
+    <sheet name="TBUSPRJMEMBER" sheetId="13" r:id="rId18"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -52,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="957" uniqueCount="348">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="363">
   <si>
     <t>接口清单</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1428,6 +1429,66 @@
   </si>
   <si>
     <t>getVerifyCode接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能清单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调用接口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户获取验证码以及对应的session基础信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUT-PERMISSION-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录认证类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户提交密码、验证码等信息，获取个人信息以及权限等信息，并更新session内的值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUT-PERMISSION-02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取人员权限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当某些页面需要展现人员权限时，单独调用，获取完整的人员所属权限列表信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUT-PERMISSION-03</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登出系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新session内的信息，将人员视为已离开系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AUT-PERMISSION-04</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1543,7 +1604,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1563,22 +1624,19 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1914,38 +1972,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8B7201F-CB24-4D7C-8163-8A6BA1356558}">
-  <dimension ref="A1:K40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5916FF8E-0195-4D3D-AE50-B852A7EB5CC6}">
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D25" activePane="bottomRight" state="frozenSplit"/>
-      <selection pane="topRight" activeCell="F1" sqref="F1"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="F41" sqref="F41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="5" max="5" width="45" customWidth="1"/>
-    <col min="6" max="6" width="21.875" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.625" customWidth="1"/>
-    <col min="10" max="10" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="77.625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="38.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1953,1131 +2001,98 @@
         <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>349</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>3</v>
+        <v>67</v>
       </c>
       <c r="F3" t="s">
-        <v>67</v>
-      </c>
-      <c r="G3" t="s">
-        <v>285</v>
-      </c>
-      <c r="H3" t="s">
-        <v>286</v>
-      </c>
-      <c r="I3" t="s">
-        <v>287</v>
-      </c>
-      <c r="J3" t="s">
-        <v>289</v>
-      </c>
-      <c r="K3" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>353</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>307</v>
       </c>
       <c r="D4" t="s">
-        <v>7</v>
+        <v>351</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
+        <v>352</v>
       </c>
       <c r="F4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G4" t="s">
-        <v>115</v>
-      </c>
-      <c r="H4" t="s">
-        <v>288</v>
-      </c>
-      <c r="I4" t="s">
-        <v>288</v>
-      </c>
-      <c r="J4" t="s">
-        <v>288</v>
-      </c>
-      <c r="K4" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>353</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>354</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>355</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>356</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
-      </c>
-      <c r="G5" t="s">
-        <v>288</v>
-      </c>
-      <c r="H5" t="s">
-        <v>115</v>
-      </c>
-      <c r="I5" t="s">
-        <v>288</v>
-      </c>
-      <c r="J5" t="s">
-        <v>288</v>
-      </c>
-      <c r="K5" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>353</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>357</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>358</v>
       </c>
       <c r="E6" t="s">
-        <v>20</v>
-      </c>
-      <c r="F6" t="s">
-        <v>70</v>
-      </c>
-      <c r="G6" t="s">
-        <v>288</v>
-      </c>
-      <c r="H6" t="s">
-        <v>288</v>
-      </c>
-      <c r="I6" t="s">
-        <v>115</v>
-      </c>
-      <c r="J6" t="s">
-        <v>288</v>
-      </c>
-      <c r="K6" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>353</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>360</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>361</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>362</v>
       </c>
       <c r="F7" t="s">
-        <v>71</v>
-      </c>
-      <c r="G7" t="s">
-        <v>116</v>
-      </c>
-      <c r="H7" t="s">
-        <v>288</v>
-      </c>
-      <c r="I7" t="s">
-        <v>288</v>
-      </c>
-      <c r="J7" t="s">
-        <v>288</v>
-      </c>
-      <c r="K7" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C8" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
-      <c r="E8" t="s">
-        <v>17</v>
-      </c>
-      <c r="F8" t="s">
-        <v>72</v>
-      </c>
-      <c r="G8" t="s">
-        <v>288</v>
-      </c>
-      <c r="H8" t="s">
-        <v>116</v>
-      </c>
-      <c r="I8" t="s">
-        <v>288</v>
-      </c>
-      <c r="J8" t="s">
-        <v>288</v>
-      </c>
-      <c r="K8" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>6</v>
-      </c>
-      <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" t="s">
-        <v>13</v>
-      </c>
-      <c r="E9" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" t="s">
-        <v>73</v>
-      </c>
-      <c r="G9" t="s">
-        <v>288</v>
-      </c>
-      <c r="H9" t="s">
-        <v>288</v>
-      </c>
-      <c r="I9" t="s">
-        <v>116</v>
-      </c>
-      <c r="J9" t="s">
-        <v>288</v>
-      </c>
-      <c r="K9" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>7</v>
-      </c>
-      <c r="B10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C10" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
-      <c r="E10" t="s">
-        <v>22</v>
-      </c>
-      <c r="F10" t="s">
-        <v>74</v>
-      </c>
-      <c r="G10" t="s">
-        <v>117</v>
-      </c>
-      <c r="H10" t="s">
-        <v>288</v>
-      </c>
-      <c r="I10" t="s">
-        <v>288</v>
-      </c>
-      <c r="J10" t="s">
-        <v>288</v>
-      </c>
-      <c r="K10" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
-      <c r="E11" t="s">
-        <v>24</v>
-      </c>
-      <c r="F11" t="s">
-        <v>75</v>
-      </c>
-      <c r="G11" t="s">
-        <v>288</v>
-      </c>
-      <c r="H11" t="s">
-        <v>117</v>
-      </c>
-      <c r="I11" t="s">
-        <v>288</v>
-      </c>
-      <c r="J11" t="s">
-        <v>288</v>
-      </c>
-      <c r="K11" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>9</v>
-      </c>
-      <c r="B12" t="s">
-        <v>4</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" t="s">
-        <v>76</v>
-      </c>
-      <c r="G12" t="s">
-        <v>288</v>
-      </c>
-      <c r="H12" t="s">
-        <v>288</v>
-      </c>
-      <c r="I12" t="s">
-        <v>117</v>
-      </c>
-      <c r="J12" t="s">
-        <v>288</v>
-      </c>
-      <c r="K12" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>10</v>
-      </c>
-      <c r="B13" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" t="s">
-        <v>291</v>
-      </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
-      <c r="E13" t="s">
-        <v>292</v>
-      </c>
-      <c r="F13" t="s">
-        <v>293</v>
-      </c>
-      <c r="G13" t="s">
-        <v>119</v>
-      </c>
-      <c r="H13" t="s">
-        <v>288</v>
-      </c>
-      <c r="I13" t="s">
-        <v>288</v>
-      </c>
-      <c r="J13" t="s">
-        <v>288</v>
-      </c>
-      <c r="K13" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>11</v>
-      </c>
-      <c r="B14" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" t="s">
-        <v>294</v>
-      </c>
-      <c r="D14" t="s">
-        <v>7</v>
-      </c>
-      <c r="E14" t="s">
-        <v>297</v>
-      </c>
-      <c r="F14" t="s">
-        <v>298</v>
-      </c>
-      <c r="G14" t="s">
-        <v>288</v>
-      </c>
-      <c r="H14" t="s">
-        <v>119</v>
-      </c>
-      <c r="I14" t="s">
-        <v>288</v>
-      </c>
-      <c r="J14" t="s">
-        <v>119</v>
-      </c>
-      <c r="K14" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>12</v>
-      </c>
-      <c r="B15" t="s">
-        <v>4</v>
-      </c>
-      <c r="C15" t="s">
-        <v>295</v>
-      </c>
-      <c r="D15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" t="s">
-        <v>296</v>
-      </c>
-      <c r="F15" t="s">
-        <v>299</v>
-      </c>
-      <c r="G15" t="s">
-        <v>288</v>
-      </c>
-      <c r="H15" t="s">
-        <v>288</v>
-      </c>
-      <c r="I15" t="s">
-        <v>119</v>
-      </c>
-      <c r="J15" t="s">
-        <v>288</v>
-      </c>
-      <c r="K15" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>13</v>
-      </c>
-      <c r="B16" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" t="s">
-        <v>28</v>
-      </c>
-      <c r="D16" t="s">
-        <v>7</v>
-      </c>
-      <c r="E16" t="s">
-        <v>29</v>
-      </c>
-      <c r="F16" t="s">
-        <v>77</v>
-      </c>
-      <c r="G16" t="s">
-        <v>120</v>
-      </c>
-      <c r="H16" t="s">
-        <v>288</v>
-      </c>
-      <c r="I16" t="s">
-        <v>288</v>
-      </c>
-      <c r="J16" t="s">
-        <v>288</v>
-      </c>
-      <c r="K16" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>14</v>
-      </c>
-      <c r="B17" t="s">
-        <v>27</v>
-      </c>
-      <c r="C17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17" t="s">
-        <v>7</v>
-      </c>
-      <c r="E17" t="s">
-        <v>31</v>
-      </c>
-      <c r="F17" t="s">
-        <v>78</v>
-      </c>
-      <c r="G17" t="s">
-        <v>288</v>
-      </c>
-      <c r="H17" t="s">
-        <v>121</v>
-      </c>
-      <c r="I17" t="s">
-        <v>288</v>
-      </c>
-      <c r="J17" t="s">
-        <v>288</v>
-      </c>
-      <c r="K17" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>15</v>
-      </c>
-      <c r="B18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C18" t="s">
-        <v>79</v>
-      </c>
-      <c r="D18" t="s">
-        <v>7</v>
-      </c>
-      <c r="E18" t="s">
-        <v>80</v>
-      </c>
-      <c r="F18" t="s">
-        <v>81</v>
-      </c>
-      <c r="G18" t="s">
-        <v>288</v>
-      </c>
-      <c r="H18" t="s">
-        <v>288</v>
-      </c>
-      <c r="I18" t="s">
-        <v>288</v>
-      </c>
-      <c r="J18" t="s">
-        <v>121</v>
-      </c>
-      <c r="K18" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>16</v>
-      </c>
-      <c r="B19" t="s">
-        <v>27</v>
-      </c>
-      <c r="C19" t="s">
-        <v>32</v>
-      </c>
-      <c r="D19" t="s">
-        <v>7</v>
-      </c>
-      <c r="E19" t="s">
-        <v>33</v>
-      </c>
-      <c r="F19" t="s">
-        <v>82</v>
-      </c>
-      <c r="G19" t="s">
-        <v>288</v>
-      </c>
-      <c r="H19" t="s">
-        <v>120</v>
-      </c>
-      <c r="I19" t="s">
-        <v>288</v>
-      </c>
-      <c r="J19" t="s">
-        <v>288</v>
-      </c>
-      <c r="K19" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>17</v>
-      </c>
-      <c r="B20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C20" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" t="s">
-        <v>35</v>
-      </c>
-      <c r="F20" t="s">
-        <v>83</v>
-      </c>
-      <c r="G20" t="s">
-        <v>288</v>
-      </c>
-      <c r="H20" t="s">
-        <v>288</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>212</v>
-      </c>
-      <c r="J20" t="s">
-        <v>288</v>
-      </c>
-      <c r="K20" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>18</v>
-      </c>
-      <c r="B21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" t="s">
-        <v>84</v>
-      </c>
-      <c r="G21" t="s">
-        <v>288</v>
-      </c>
-      <c r="H21" t="s">
-        <v>288</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="J21" t="s">
-        <v>288</v>
-      </c>
-      <c r="K21" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>19</v>
-      </c>
-      <c r="B22" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" t="s">
-        <v>7</v>
-      </c>
-      <c r="E22" t="s">
-        <v>39</v>
-      </c>
-      <c r="F22" t="s">
-        <v>85</v>
-      </c>
-      <c r="G22" t="s">
-        <v>122</v>
-      </c>
-      <c r="H22" t="s">
-        <v>288</v>
-      </c>
-      <c r="I22" t="s">
-        <v>288</v>
-      </c>
-      <c r="J22" t="s">
-        <v>288</v>
-      </c>
-      <c r="K22" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>20</v>
-      </c>
-      <c r="B23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D23" t="s">
-        <v>7</v>
-      </c>
-      <c r="E23" t="s">
-        <v>44</v>
-      </c>
-      <c r="F23" t="s">
-        <v>86</v>
-      </c>
-      <c r="G23" t="s">
-        <v>288</v>
-      </c>
-      <c r="H23" t="s">
-        <v>288</v>
-      </c>
-      <c r="I23" t="s">
-        <v>288</v>
-      </c>
-      <c r="J23" t="s">
-        <v>122</v>
-      </c>
-      <c r="K23" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24">
-        <v>21</v>
-      </c>
-      <c r="B24" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" t="s">
-        <v>13</v>
-      </c>
-      <c r="E24" t="s">
-        <v>41</v>
-      </c>
-      <c r="F24" t="s">
-        <v>87</v>
-      </c>
-      <c r="G24" t="s">
-        <v>288</v>
-      </c>
-      <c r="H24" t="s">
-        <v>288</v>
-      </c>
-      <c r="I24" t="s">
-        <v>301</v>
-      </c>
-      <c r="J24" t="s">
-        <v>288</v>
-      </c>
-      <c r="K24" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A25">
-        <v>22</v>
-      </c>
-      <c r="B25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" t="s">
-        <v>7</v>
-      </c>
-      <c r="E25" t="s">
-        <v>46</v>
-      </c>
-      <c r="F25" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A26">
-        <v>23</v>
-      </c>
-      <c r="B26" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" t="s">
-        <v>47</v>
-      </c>
-      <c r="D26" t="s">
-        <v>7</v>
-      </c>
-      <c r="E26" t="s">
-        <v>48</v>
-      </c>
-      <c r="F26" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27">
-        <v>24</v>
-      </c>
-      <c r="B27" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" t="s">
-        <v>49</v>
-      </c>
-      <c r="D27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E27" t="s">
-        <v>50</v>
-      </c>
-      <c r="F27" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A28">
-        <v>25</v>
-      </c>
-      <c r="B28" t="s">
-        <v>42</v>
-      </c>
-      <c r="C28" t="s">
-        <v>52</v>
-      </c>
-      <c r="D28" t="s">
-        <v>7</v>
-      </c>
-      <c r="E28" t="s">
-        <v>51</v>
-      </c>
-      <c r="F28" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29">
-        <v>26</v>
-      </c>
-      <c r="B29" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" t="s">
-        <v>53</v>
-      </c>
-      <c r="D29" t="s">
-        <v>7</v>
-      </c>
-      <c r="E29" t="s">
-        <v>54</v>
-      </c>
-      <c r="F29" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30">
-        <v>27</v>
-      </c>
-      <c r="B30" t="s">
-        <v>42</v>
-      </c>
-      <c r="C30" t="s">
-        <v>55</v>
-      </c>
-      <c r="D30" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" t="s">
-        <v>56</v>
-      </c>
-      <c r="F30" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31">
-        <v>28</v>
-      </c>
-      <c r="B31" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31" t="s">
-        <v>57</v>
-      </c>
-      <c r="D31" t="s">
-        <v>7</v>
-      </c>
-      <c r="E31" t="s">
-        <v>58</v>
-      </c>
-      <c r="F31" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32">
-        <v>29</v>
-      </c>
-      <c r="B32" t="s">
-        <v>42</v>
-      </c>
-      <c r="C32" t="s">
-        <v>59</v>
-      </c>
-      <c r="D32" t="s">
-        <v>7</v>
-      </c>
-      <c r="E32" t="s">
-        <v>64</v>
-      </c>
-      <c r="F32" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A33">
-        <v>30</v>
-      </c>
-      <c r="B33" t="s">
-        <v>42</v>
-      </c>
-      <c r="C33" t="s">
-        <v>62</v>
-      </c>
-      <c r="D33" t="s">
-        <v>7</v>
-      </c>
-      <c r="E33" t="s">
-        <v>63</v>
-      </c>
-      <c r="F33" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A34">
-        <v>31</v>
-      </c>
-      <c r="B34" t="s">
-        <v>42</v>
-      </c>
-      <c r="C34" t="s">
-        <v>60</v>
-      </c>
-      <c r="D34" t="s">
-        <v>13</v>
-      </c>
-      <c r="E34" t="s">
-        <v>61</v>
-      </c>
-      <c r="F34" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A35">
-        <v>32</v>
-      </c>
-      <c r="B35" t="s">
-        <v>42</v>
-      </c>
-      <c r="C35" t="s">
-        <v>65</v>
-      </c>
-      <c r="D35" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35" t="s">
-        <v>66</v>
-      </c>
-      <c r="F35" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A36">
-        <v>33</v>
-      </c>
-      <c r="B36" t="s">
-        <v>102</v>
-      </c>
-      <c r="C36" t="s">
-        <v>103</v>
-      </c>
-      <c r="D36" t="s">
-        <v>7</v>
-      </c>
-      <c r="E36" t="s">
-        <v>104</v>
-      </c>
-      <c r="F36" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A37">
-        <v>34</v>
-      </c>
-      <c r="B37" t="s">
-        <v>102</v>
-      </c>
-      <c r="C37" t="s">
-        <v>105</v>
-      </c>
-      <c r="D37" t="s">
-        <v>7</v>
-      </c>
-      <c r="E37" t="s">
-        <v>106</v>
-      </c>
-      <c r="F37" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A38">
-        <v>35</v>
-      </c>
-      <c r="B38" t="s">
-        <v>102</v>
-      </c>
-      <c r="C38" t="s">
-        <v>107</v>
-      </c>
-      <c r="D38" t="s">
-        <v>7</v>
-      </c>
-      <c r="E38" t="s">
-        <v>108</v>
-      </c>
-      <c r="F38" t="s">
-        <v>109</v>
-      </c>
-      <c r="G38" t="s">
-        <v>335</v>
-      </c>
-      <c r="H38" t="s">
-        <v>335</v>
-      </c>
-      <c r="I38" t="s">
-        <v>334</v>
-      </c>
-      <c r="J38" t="s">
-        <v>335</v>
-      </c>
-      <c r="K38" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A39">
-        <v>36</v>
-      </c>
-      <c r="B39" t="s">
-        <v>102</v>
-      </c>
-      <c r="C39" t="s">
-        <v>112</v>
-      </c>
-      <c r="D39" t="s">
-        <v>7</v>
-      </c>
-      <c r="E39" t="s">
-        <v>110</v>
-      </c>
-      <c r="F39" t="s">
-        <v>111</v>
-      </c>
-      <c r="G39" t="s">
-        <v>335</v>
-      </c>
-      <c r="H39" t="s">
-        <v>335</v>
-      </c>
-      <c r="I39" t="s">
-        <v>335</v>
-      </c>
-      <c r="J39" t="s">
-        <v>335</v>
-      </c>
-      <c r="K39" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A40">
-        <v>37</v>
-      </c>
-      <c r="B40" t="s">
-        <v>102</v>
-      </c>
-      <c r="C40" t="s">
-        <v>307</v>
-      </c>
-      <c r="D40" t="s">
-        <v>13</v>
-      </c>
-      <c r="E40" t="s">
-        <v>308</v>
-      </c>
-      <c r="F40" t="s">
-        <v>339</v>
-      </c>
-      <c r="G40" t="s">
-        <v>335</v>
-      </c>
-      <c r="H40" t="s">
-        <v>335</v>
-      </c>
-      <c r="I40" t="s">
-        <v>335</v>
-      </c>
-      <c r="J40" t="s">
-        <v>335</v>
-      </c>
-      <c r="K40" t="s">
-        <v>335</v>
       </c>
     </row>
   </sheetData>
@@ -3087,6 +2102,344 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFFBCCB0-C9B3-442E-8A5D-EC6C21539DC1}">
+  <dimension ref="A1:G31"/>
+  <sheetViews>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B4" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E4" t="s">
+        <v>147</v>
+      </c>
+      <c r="F4" t="s">
+        <v>144</v>
+      </c>
+      <c r="G4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D5" t="s">
+        <v>302</v>
+      </c>
+      <c r="E5" t="s">
+        <v>151</v>
+      </c>
+      <c r="G5" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>167</v>
+      </c>
+      <c r="C6" t="s">
+        <v>149</v>
+      </c>
+      <c r="E6" t="s">
+        <v>151</v>
+      </c>
+      <c r="G6" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7" t="s">
+        <v>148</v>
+      </c>
+      <c r="C7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E7" t="s">
+        <v>151</v>
+      </c>
+      <c r="G7" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>152</v>
+      </c>
+      <c r="C8" t="s">
+        <v>153</v>
+      </c>
+      <c r="E8" t="s">
+        <v>151</v>
+      </c>
+      <c r="G8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>5</v>
+      </c>
+      <c r="B9" t="s">
+        <v>154</v>
+      </c>
+      <c r="C9" t="s">
+        <v>146</v>
+      </c>
+      <c r="E9" t="s">
+        <v>151</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>156</v>
+      </c>
+      <c r="C10" t="s">
+        <v>146</v>
+      </c>
+      <c r="E10" t="s">
+        <v>151</v>
+      </c>
+      <c r="G10" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>7</v>
+      </c>
+      <c r="B11" t="s">
+        <v>157</v>
+      </c>
+      <c r="C11" t="s">
+        <v>158</v>
+      </c>
+      <c r="E11" t="s">
+        <v>151</v>
+      </c>
+      <c r="F11" t="s">
+        <v>159</v>
+      </c>
+      <c r="G11" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>8</v>
+      </c>
+      <c r="B12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C12" t="s">
+        <v>146</v>
+      </c>
+      <c r="G12" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>9</v>
+      </c>
+      <c r="B13" t="s">
+        <v>161</v>
+      </c>
+      <c r="C13" t="s">
+        <v>158</v>
+      </c>
+      <c r="G13" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s">
+        <v>162</v>
+      </c>
+      <c r="C14" t="s">
+        <v>146</v>
+      </c>
+      <c r="E14" t="s">
+        <v>151</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>11</v>
+      </c>
+      <c r="B15" t="s">
+        <v>309</v>
+      </c>
+      <c r="C15" t="s">
+        <v>146</v>
+      </c>
+      <c r="E15" t="s">
+        <v>151</v>
+      </c>
+      <c r="F15" s="1">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="str">
+        <f xml:space="preserve"> "create table "&amp;A1&amp;" ("</f>
+        <v>create table TMSTUSER (</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="str">
+        <f t="shared" ref="A20:A30" si="0">B5&amp;" "&amp;C5&amp;IF(D5="Y"," PRIMARY KEY","")&amp;IF(E5="not null"," NOT NULL","")&amp;IF(F5="",""," default "&amp;F5)&amp;" ,"</f>
+        <v>empid number PRIMARY KEY NOT NULL ,</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="str">
+        <f t="shared" si="0"/>
+        <v>empcode varchar2(10) NOT NULL ,</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="str">
+        <f t="shared" si="0"/>
+        <v>empname varchar2(15) NOT NULL ,</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="str">
+        <f t="shared" si="0"/>
+        <v>passwd varchar2(30) NOT NULL ,</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="str">
+        <f t="shared" si="0"/>
+        <v>sex number NOT NULL default 1 ,</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="str">
+        <f t="shared" si="0"/>
+        <v>createuser number NOT NULL ,</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="str">
+        <f t="shared" si="0"/>
+        <v>createdate date NOT NULL default sysdate ,</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="str">
+        <f t="shared" si="0"/>
+        <v>modifyuser number ,</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" t="str">
+        <f t="shared" si="0"/>
+        <v>modifydate date ,</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" t="str">
+        <f t="shared" si="0"/>
+        <v>status number NOT NULL default 0 ,</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" t="str">
+        <f t="shared" si="0"/>
+        <v>admin number NOT NULL default 1 ,</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" t="str">
+        <f>");"</f>
+        <v>);</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB03D5A5-0734-4EBB-AAA3-9950AEEFB6BA}">
   <dimension ref="A1:G32"/>
   <sheetViews>
@@ -3412,7 +2765,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6685B170-BF94-43A9-9A01-EF0B83748FD1}">
   <dimension ref="A1:G28"/>
   <sheetViews>
@@ -3695,7 +3048,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EA6138C-4A64-49BC-828F-B36B33456D29}">
   <dimension ref="A1:G25"/>
   <sheetViews>
@@ -3942,7 +3295,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE7AD354-BB85-45D8-B200-584C4144CEC4}">
   <dimension ref="A1:G25"/>
   <sheetViews>
@@ -4191,7 +3544,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B66EAD3-5661-4A32-8504-975CF94B532D}">
   <dimension ref="A1:G40"/>
   <sheetViews>
@@ -4648,7 +4001,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96829F3A-DD9A-45E4-B6A0-8A0F2F5EDB37}">
   <dimension ref="A1:G27"/>
   <sheetViews>
@@ -4944,7 +4297,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A7D2748-ABEF-4AB1-B723-B3FF73D6D441}">
   <dimension ref="A1:G30"/>
   <sheetViews>
@@ -5272,7 +4625,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B19AF1C-C73E-49E1-8642-644C43AB355B}">
   <dimension ref="A1:G25"/>
   <sheetViews>
@@ -5538,10 +4891,1183 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8B7201F-CB24-4D7C-8163-8A6BA1356558}">
+  <dimension ref="A1:K40"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="D10" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="topRight" activeCell="F1" sqref="F1"/>
+      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+      <selection pane="bottomRight" activeCell="C30" sqref="C30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="3" max="3" width="19" customWidth="1"/>
+    <col min="5" max="5" width="45" customWidth="1"/>
+    <col min="6" max="6" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="22.625" customWidth="1"/>
+    <col min="10" max="10" width="23.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G3" t="s">
+        <v>285</v>
+      </c>
+      <c r="H3" t="s">
+        <v>286</v>
+      </c>
+      <c r="I3" t="s">
+        <v>287</v>
+      </c>
+      <c r="J3" t="s">
+        <v>289</v>
+      </c>
+      <c r="K3" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G4" t="s">
+        <v>115</v>
+      </c>
+      <c r="H4" t="s">
+        <v>288</v>
+      </c>
+      <c r="I4" t="s">
+        <v>288</v>
+      </c>
+      <c r="J4" t="s">
+        <v>288</v>
+      </c>
+      <c r="K4" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>288</v>
+      </c>
+      <c r="H5" t="s">
+        <v>115</v>
+      </c>
+      <c r="I5" t="s">
+        <v>288</v>
+      </c>
+      <c r="J5" t="s">
+        <v>288</v>
+      </c>
+      <c r="K5" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6" t="s">
+        <v>70</v>
+      </c>
+      <c r="G6" t="s">
+        <v>288</v>
+      </c>
+      <c r="H6" t="s">
+        <v>288</v>
+      </c>
+      <c r="I6" t="s">
+        <v>115</v>
+      </c>
+      <c r="J6" t="s">
+        <v>288</v>
+      </c>
+      <c r="K6" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" t="s">
+        <v>71</v>
+      </c>
+      <c r="G7" t="s">
+        <v>116</v>
+      </c>
+      <c r="H7" t="s">
+        <v>288</v>
+      </c>
+      <c r="I7" t="s">
+        <v>288</v>
+      </c>
+      <c r="J7" t="s">
+        <v>288</v>
+      </c>
+      <c r="K7" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>17</v>
+      </c>
+      <c r="F8" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" t="s">
+        <v>288</v>
+      </c>
+      <c r="H8" t="s">
+        <v>116</v>
+      </c>
+      <c r="I8" t="s">
+        <v>288</v>
+      </c>
+      <c r="J8" t="s">
+        <v>288</v>
+      </c>
+      <c r="K8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>4</v>
+      </c>
+      <c r="C9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G9" t="s">
+        <v>288</v>
+      </c>
+      <c r="H9" t="s">
+        <v>288</v>
+      </c>
+      <c r="I9" t="s">
+        <v>116</v>
+      </c>
+      <c r="J9" t="s">
+        <v>288</v>
+      </c>
+      <c r="K9" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" t="s">
+        <v>22</v>
+      </c>
+      <c r="F10" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" t="s">
+        <v>117</v>
+      </c>
+      <c r="H10" t="s">
+        <v>288</v>
+      </c>
+      <c r="I10" t="s">
+        <v>288</v>
+      </c>
+      <c r="J10" t="s">
+        <v>288</v>
+      </c>
+      <c r="K10" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>24</v>
+      </c>
+      <c r="F11" t="s">
+        <v>75</v>
+      </c>
+      <c r="G11" t="s">
+        <v>288</v>
+      </c>
+      <c r="H11" t="s">
+        <v>117</v>
+      </c>
+      <c r="I11" t="s">
+        <v>288</v>
+      </c>
+      <c r="J11" t="s">
+        <v>288</v>
+      </c>
+      <c r="K11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>9</v>
+      </c>
+      <c r="B12" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" t="s">
+        <v>76</v>
+      </c>
+      <c r="G12" t="s">
+        <v>288</v>
+      </c>
+      <c r="H12" t="s">
+        <v>288</v>
+      </c>
+      <c r="I12" t="s">
+        <v>117</v>
+      </c>
+      <c r="J12" t="s">
+        <v>288</v>
+      </c>
+      <c r="K12" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" t="s">
+        <v>291</v>
+      </c>
+      <c r="D13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" t="s">
+        <v>292</v>
+      </c>
+      <c r="F13" t="s">
+        <v>293</v>
+      </c>
+      <c r="G13" t="s">
+        <v>119</v>
+      </c>
+      <c r="H13" t="s">
+        <v>288</v>
+      </c>
+      <c r="I13" t="s">
+        <v>288</v>
+      </c>
+      <c r="J13" t="s">
+        <v>288</v>
+      </c>
+      <c r="K13" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>11</v>
+      </c>
+      <c r="B14" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" t="s">
+        <v>294</v>
+      </c>
+      <c r="D14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" t="s">
+        <v>297</v>
+      </c>
+      <c r="F14" t="s">
+        <v>298</v>
+      </c>
+      <c r="G14" t="s">
+        <v>288</v>
+      </c>
+      <c r="H14" t="s">
+        <v>119</v>
+      </c>
+      <c r="I14" t="s">
+        <v>288</v>
+      </c>
+      <c r="J14" t="s">
+        <v>119</v>
+      </c>
+      <c r="K14" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" t="s">
+        <v>295</v>
+      </c>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" t="s">
+        <v>296</v>
+      </c>
+      <c r="F15" t="s">
+        <v>299</v>
+      </c>
+      <c r="G15" t="s">
+        <v>288</v>
+      </c>
+      <c r="H15" t="s">
+        <v>288</v>
+      </c>
+      <c r="I15" t="s">
+        <v>119</v>
+      </c>
+      <c r="J15" t="s">
+        <v>288</v>
+      </c>
+      <c r="K15" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D16" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" t="s">
+        <v>29</v>
+      </c>
+      <c r="F16" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" t="s">
+        <v>120</v>
+      </c>
+      <c r="H16" t="s">
+        <v>288</v>
+      </c>
+      <c r="I16" t="s">
+        <v>288</v>
+      </c>
+      <c r="J16" t="s">
+        <v>288</v>
+      </c>
+      <c r="K16" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>27</v>
+      </c>
+      <c r="C17" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E17" t="s">
+        <v>31</v>
+      </c>
+      <c r="F17" t="s">
+        <v>78</v>
+      </c>
+      <c r="G17" t="s">
+        <v>288</v>
+      </c>
+      <c r="H17" t="s">
+        <v>121</v>
+      </c>
+      <c r="I17" t="s">
+        <v>288</v>
+      </c>
+      <c r="J17" t="s">
+        <v>288</v>
+      </c>
+      <c r="K17" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18" t="s">
+        <v>288</v>
+      </c>
+      <c r="H18" t="s">
+        <v>288</v>
+      </c>
+      <c r="I18" t="s">
+        <v>288</v>
+      </c>
+      <c r="J18" t="s">
+        <v>121</v>
+      </c>
+      <c r="K18" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>16</v>
+      </c>
+      <c r="B19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" t="s">
+        <v>82</v>
+      </c>
+      <c r="G19" t="s">
+        <v>288</v>
+      </c>
+      <c r="H19" t="s">
+        <v>120</v>
+      </c>
+      <c r="I19" t="s">
+        <v>288</v>
+      </c>
+      <c r="J19" t="s">
+        <v>288</v>
+      </c>
+      <c r="K19" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>17</v>
+      </c>
+      <c r="B20" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" t="s">
+        <v>83</v>
+      </c>
+      <c r="G20" t="s">
+        <v>288</v>
+      </c>
+      <c r="H20" t="s">
+        <v>288</v>
+      </c>
+      <c r="I20" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="J20" t="s">
+        <v>288</v>
+      </c>
+      <c r="K20" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+      <c r="C21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" t="s">
+        <v>84</v>
+      </c>
+      <c r="G21" t="s">
+        <v>288</v>
+      </c>
+      <c r="H21" t="s">
+        <v>288</v>
+      </c>
+      <c r="I21" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="J21" t="s">
+        <v>288</v>
+      </c>
+      <c r="K21" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" t="s">
+        <v>85</v>
+      </c>
+      <c r="G22" t="s">
+        <v>122</v>
+      </c>
+      <c r="H22" t="s">
+        <v>288</v>
+      </c>
+      <c r="I22" t="s">
+        <v>288</v>
+      </c>
+      <c r="J22" t="s">
+        <v>288</v>
+      </c>
+      <c r="K22" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" t="s">
+        <v>43</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>86</v>
+      </c>
+      <c r="G23" t="s">
+        <v>288</v>
+      </c>
+      <c r="H23" t="s">
+        <v>288</v>
+      </c>
+      <c r="I23" t="s">
+        <v>288</v>
+      </c>
+      <c r="J23" t="s">
+        <v>122</v>
+      </c>
+      <c r="K23" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" t="s">
+        <v>87</v>
+      </c>
+      <c r="G24" t="s">
+        <v>288</v>
+      </c>
+      <c r="H24" t="s">
+        <v>288</v>
+      </c>
+      <c r="I24" t="s">
+        <v>301</v>
+      </c>
+      <c r="J24" t="s">
+        <v>288</v>
+      </c>
+      <c r="K24" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>22</v>
+      </c>
+      <c r="B25" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25" t="s">
+        <v>46</v>
+      </c>
+      <c r="F25" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" t="s">
+        <v>47</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26" t="s">
+        <v>48</v>
+      </c>
+      <c r="F26" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" t="s">
+        <v>50</v>
+      </c>
+      <c r="F27" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>25</v>
+      </c>
+      <c r="B28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" t="s">
+        <v>51</v>
+      </c>
+      <c r="F28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>26</v>
+      </c>
+      <c r="B29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" t="s">
+        <v>53</v>
+      </c>
+      <c r="D29" t="s">
+        <v>7</v>
+      </c>
+      <c r="E29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F29" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="B30" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>28</v>
+      </c>
+      <c r="B31" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" t="s">
+        <v>7</v>
+      </c>
+      <c r="E31" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>29</v>
+      </c>
+      <c r="B32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C32" t="s">
+        <v>59</v>
+      </c>
+      <c r="D32" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" t="s">
+        <v>64</v>
+      </c>
+      <c r="F32" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>30</v>
+      </c>
+      <c r="B33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" t="s">
+        <v>62</v>
+      </c>
+      <c r="D33" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" t="s">
+        <v>63</v>
+      </c>
+      <c r="F33" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>31</v>
+      </c>
+      <c r="B34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C34" t="s">
+        <v>60</v>
+      </c>
+      <c r="D34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" t="s">
+        <v>61</v>
+      </c>
+      <c r="F34" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>32</v>
+      </c>
+      <c r="B35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C35" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>33</v>
+      </c>
+      <c r="B36" t="s">
+        <v>102</v>
+      </c>
+      <c r="C36" t="s">
+        <v>103</v>
+      </c>
+      <c r="D36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" t="s">
+        <v>104</v>
+      </c>
+      <c r="F36" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>34</v>
+      </c>
+      <c r="B37" t="s">
+        <v>102</v>
+      </c>
+      <c r="C37" t="s">
+        <v>105</v>
+      </c>
+      <c r="D37" t="s">
+        <v>7</v>
+      </c>
+      <c r="E37" t="s">
+        <v>106</v>
+      </c>
+      <c r="F37" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>35</v>
+      </c>
+      <c r="B38" t="s">
+        <v>102</v>
+      </c>
+      <c r="C38" t="s">
+        <v>107</v>
+      </c>
+      <c r="D38" t="s">
+        <v>7</v>
+      </c>
+      <c r="E38" t="s">
+        <v>108</v>
+      </c>
+      <c r="F38" t="s">
+        <v>109</v>
+      </c>
+      <c r="G38" t="s">
+        <v>335</v>
+      </c>
+      <c r="H38" t="s">
+        <v>335</v>
+      </c>
+      <c r="I38" t="s">
+        <v>334</v>
+      </c>
+      <c r="J38" t="s">
+        <v>335</v>
+      </c>
+      <c r="K38" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>36</v>
+      </c>
+      <c r="B39" t="s">
+        <v>102</v>
+      </c>
+      <c r="C39" t="s">
+        <v>112</v>
+      </c>
+      <c r="D39" t="s">
+        <v>7</v>
+      </c>
+      <c r="E39" t="s">
+        <v>110</v>
+      </c>
+      <c r="F39" t="s">
+        <v>111</v>
+      </c>
+      <c r="G39" t="s">
+        <v>335</v>
+      </c>
+      <c r="H39" t="s">
+        <v>335</v>
+      </c>
+      <c r="I39" t="s">
+        <v>335</v>
+      </c>
+      <c r="J39" t="s">
+        <v>335</v>
+      </c>
+      <c r="K39" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>37</v>
+      </c>
+      <c r="B40" t="s">
+        <v>102</v>
+      </c>
+      <c r="C40" t="s">
+        <v>307</v>
+      </c>
+      <c r="D40" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" t="s">
+        <v>308</v>
+      </c>
+      <c r="F40" t="s">
+        <v>339</v>
+      </c>
+      <c r="G40" t="s">
+        <v>335</v>
+      </c>
+      <c r="H40" t="s">
+        <v>335</v>
+      </c>
+      <c r="I40" t="s">
+        <v>335</v>
+      </c>
+      <c r="J40" t="s">
+        <v>335</v>
+      </c>
+      <c r="K40" t="s">
+        <v>335</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D929342-8B56-46A7-968F-E576A556591A}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -5574,28 +6100,28 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="B4" s="6"/>
+      <c r="B4" s="10"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="B5" s="7"/>
+      <c r="B5" s="6"/>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="B6" s="7"/>
+      <c r="B6" s="6"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="B7" s="6"/>
+      <c r="B7" s="10"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="4"/>
@@ -5614,16 +6140,16 @@
       <c r="B11" s="4"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="B12" s="6"/>
+      <c r="B12" s="10"/>
     </row>
     <row r="13" spans="1:2" ht="57" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="B13" s="7" t="s">
+      <c r="B13" s="6" t="s">
         <v>341</v>
       </c>
     </row>
@@ -5631,21 +6157,21 @@
       <c r="A14" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>342</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="B15" s="6"/>
+      <c r="B15" s="10"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="8" t="s">
         <v>343</v>
       </c>
     </row>
@@ -5658,12 +6184,10 @@
       </c>
     </row>
     <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="8"/>
-      <c r="B18" s="8"/>
-    </row>
-    <row r="19" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="10"/>
-    </row>
+      <c r="A18" s="7"/>
+      <c r="B18" s="7"/>
+    </row>
+    <row r="19" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
@@ -5680,7 +6204,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A2AD968-499C-4826-A39F-D90C89973BC5}">
   <dimension ref="A1:B18"/>
   <sheetViews>
@@ -5717,16 +6241,16 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="B4" s="6"/>
+      <c r="B4" s="10"/>
     </row>
     <row r="5" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>332</v>
       </c>
     </row>
@@ -5734,15 +6258,15 @@
       <c r="A6" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>312</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="B7" s="6"/>
+      <c r="B7" s="10"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
@@ -5777,10 +6301,10 @@
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="B12" s="6"/>
+      <c r="B12" s="10"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
@@ -5792,15 +6316,15 @@
       <c r="A14" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="B15" s="6"/>
+      <c r="B15" s="10"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
@@ -5811,16 +6335,14 @@
       </c>
     </row>
     <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="10"/>
-    </row>
+    <row r="18" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A12:B12"/>
@@ -5837,7 +6359,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30D35525-84E8-4AD3-8D45-E2CE9905C83B}">
   <dimension ref="A1:B18"/>
   <sheetViews>
@@ -5874,16 +6396,16 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="10" t="s">
         <v>311</v>
       </c>
-      <c r="B4" s="6"/>
+      <c r="B4" s="10"/>
     </row>
     <row r="5" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>320</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="6" t="s">
         <v>338</v>
       </c>
     </row>
@@ -5891,13 +6413,13 @@
       <c r="A6" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="B6" s="7"/>
+      <c r="B6" s="6"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="B7" s="6"/>
+      <c r="B7" s="10"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
@@ -5920,10 +6442,10 @@
       <c r="B11" s="4"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="6" t="s">
+      <c r="A12" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="B12" s="6"/>
+      <c r="B12" s="10"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="4" t="s">
@@ -5935,15 +6457,15 @@
       <c r="A14" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="6" t="s">
         <v>321</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="B15" s="6"/>
+      <c r="B15" s="10"/>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="4" t="s">
@@ -5954,16 +6476,14 @@
       </c>
     </row>
     <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="8" t="s">
+      <c r="A17" s="7" t="s">
         <v>325</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="7" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="10"/>
-    </row>
+    <row r="18" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
@@ -5980,7 +6500,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C94F757-C681-4445-BD1E-9A20E277268C}">
   <dimension ref="A1:D13"/>
   <sheetViews>
@@ -6173,7 +6693,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94326767-D9A5-4012-88D0-4A8C8B00FBE6}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -6188,7 +6708,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11229516-9F53-41D5-B3C5-685E6451A681}">
   <dimension ref="A1:G48"/>
   <sheetViews>
@@ -6567,7 +7087,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A621814-3F40-42DB-95AD-20D354D5B23F}">
   <dimension ref="A1:G28"/>
   <sheetViews>
@@ -6848,342 +7368,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFFBCCB0-C9B3-442E-8A5D-EC6C21539DC1}">
-  <dimension ref="A1:G31"/>
-  <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="2" max="2" width="10.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>141</v>
-      </c>
-      <c r="B4" t="s">
-        <v>142</v>
-      </c>
-      <c r="C4" t="s">
-        <v>143</v>
-      </c>
-      <c r="D4" t="s">
-        <v>223</v>
-      </c>
-      <c r="E4" t="s">
-        <v>147</v>
-      </c>
-      <c r="F4" t="s">
-        <v>144</v>
-      </c>
-      <c r="G4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>145</v>
-      </c>
-      <c r="C5" t="s">
-        <v>146</v>
-      </c>
-      <c r="D5" t="s">
-        <v>302</v>
-      </c>
-      <c r="E5" t="s">
-        <v>151</v>
-      </c>
-      <c r="G5" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>167</v>
-      </c>
-      <c r="C6" t="s">
-        <v>149</v>
-      </c>
-      <c r="E6" t="s">
-        <v>151</v>
-      </c>
-      <c r="G6" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>3</v>
-      </c>
-      <c r="B7" t="s">
-        <v>148</v>
-      </c>
-      <c r="C7" t="s">
-        <v>150</v>
-      </c>
-      <c r="E7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G7" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>4</v>
-      </c>
-      <c r="B8" t="s">
-        <v>152</v>
-      </c>
-      <c r="C8" t="s">
-        <v>153</v>
-      </c>
-      <c r="E8" t="s">
-        <v>151</v>
-      </c>
-      <c r="G8" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>5</v>
-      </c>
-      <c r="B9" t="s">
-        <v>154</v>
-      </c>
-      <c r="C9" t="s">
-        <v>146</v>
-      </c>
-      <c r="E9" t="s">
-        <v>151</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>6</v>
-      </c>
-      <c r="B10" t="s">
-        <v>156</v>
-      </c>
-      <c r="C10" t="s">
-        <v>146</v>
-      </c>
-      <c r="E10" t="s">
-        <v>151</v>
-      </c>
-      <c r="G10" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>7</v>
-      </c>
-      <c r="B11" t="s">
-        <v>157</v>
-      </c>
-      <c r="C11" t="s">
-        <v>158</v>
-      </c>
-      <c r="E11" t="s">
-        <v>151</v>
-      </c>
-      <c r="F11" t="s">
-        <v>159</v>
-      </c>
-      <c r="G11" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>8</v>
-      </c>
-      <c r="B12" t="s">
-        <v>160</v>
-      </c>
-      <c r="C12" t="s">
-        <v>146</v>
-      </c>
-      <c r="G12" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>9</v>
-      </c>
-      <c r="B13" t="s">
-        <v>161</v>
-      </c>
-      <c r="C13" t="s">
-        <v>158</v>
-      </c>
-      <c r="G13" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>10</v>
-      </c>
-      <c r="B14" t="s">
-        <v>162</v>
-      </c>
-      <c r="C14" t="s">
-        <v>146</v>
-      </c>
-      <c r="E14" t="s">
-        <v>151</v>
-      </c>
-      <c r="F14" s="1">
-        <v>0</v>
-      </c>
-      <c r="G14" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>11</v>
-      </c>
-      <c r="B15" t="s">
-        <v>309</v>
-      </c>
-      <c r="C15" t="s">
-        <v>146</v>
-      </c>
-      <c r="E15" t="s">
-        <v>151</v>
-      </c>
-      <c r="F15" s="1">
-        <v>1</v>
-      </c>
-      <c r="G15" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" t="str">
-        <f xml:space="preserve"> "create table "&amp;A1&amp;" ("</f>
-        <v>create table TMSTUSER (</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" t="str">
-        <f t="shared" ref="A20:A30" si="0">B5&amp;" "&amp;C5&amp;IF(D5="Y"," PRIMARY KEY","")&amp;IF(E5="not null"," NOT NULL","")&amp;IF(F5="",""," default "&amp;F5)&amp;" ,"</f>
-        <v>empid number PRIMARY KEY NOT NULL ,</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" t="str">
-        <f t="shared" si="0"/>
-        <v>empcode varchar2(10) NOT NULL ,</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" t="str">
-        <f t="shared" si="0"/>
-        <v>empname varchar2(15) NOT NULL ,</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" t="str">
-        <f t="shared" si="0"/>
-        <v>passwd varchar2(30) NOT NULL ,</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" t="str">
-        <f t="shared" si="0"/>
-        <v>sex number NOT NULL default 1 ,</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" t="str">
-        <f t="shared" si="0"/>
-        <v>createuser number NOT NULL ,</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" t="str">
-        <f t="shared" si="0"/>
-        <v>createdate date NOT NULL default sysdate ,</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" t="str">
-        <f t="shared" si="0"/>
-        <v>modifyuser number ,</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" t="str">
-        <f t="shared" si="0"/>
-        <v>modifydate date ,</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" t="str">
-        <f t="shared" si="0"/>
-        <v>status number NOT NULL default 0 ,</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" t="str">
-        <f t="shared" si="0"/>
-        <v>admin number NOT NULL default 1 ,</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" t="str">
-        <f>");"</f>
-        <v>);</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/doc/设计文档.xlsx
+++ b/doc/设计文档.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\dev_prj\pyProjectEventSystem_v2\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/edmondchen/Dev_Prj/pyProjectEventSystem_v2/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF09C31D-DD60-4FA7-A2A3-94BDAA496324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A282A1A6-C654-5D47-9C92-8CB6CE305C69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="820" activeTab="1" xr2:uid="{883248E0-534C-4554-ABE7-C4D8C7626446}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" tabRatio="820" activeTab="8" xr2:uid="{883248E0-534C-4554-ABE7-C4D8C7626446}"/>
   </bookViews>
   <sheets>
     <sheet name="功能设计" sheetId="19" r:id="rId1"/>
@@ -32,6 +32,9 @@
     <sheet name="TBUSPRJEVENT" sheetId="12" r:id="rId17"/>
     <sheet name="TBUSPRJMEMBER" sheetId="13" r:id="rId18"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">接口设计!$A$3:$K$3</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -53,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="983" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1003" uniqueCount="377">
   <si>
     <t>接口清单</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1491,12 +1494,68 @@
     <t>AUT-PERMISSION-04</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>基础数据类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建一个系统用户，并将该用户的一些信息记录进系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MST-USER-ADD-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改人员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MST-USER-EDT-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取人员，并修改人员对应的信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QueryUser，EditUser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新建部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建一个系统部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MST-DEPT-ADD-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获取部门，并修改部门对应的信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门表在业务中没有实际应用到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1546,12 +1605,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -1604,7 +1669,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1637,6 +1702,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1973,27 +2041,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5916FF8E-0195-4D3D-AE50-B852A7EB5CC6}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="77.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="77.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38.75" customWidth="1"/>
+    <col min="6" max="6" width="38.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -2013,7 +2081,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6">
       <c r="A4">
         <v>1</v>
       </c>
@@ -2033,7 +2101,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6">
       <c r="A5">
         <v>2</v>
       </c>
@@ -2053,7 +2121,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6">
       <c r="A6">
         <v>3</v>
       </c>
@@ -2069,8 +2137,11 @@
       <c r="E6" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7">
         <v>4</v>
       </c>
@@ -2090,9 +2161,83 @@
         <v>111</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6">
       <c r="A8">
         <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>363</v>
+      </c>
+      <c r="C8" t="s">
+        <v>364</v>
+      </c>
+      <c r="D8" t="s">
+        <v>365</v>
+      </c>
+      <c r="E8" t="s">
+        <v>366</v>
+      </c>
+      <c r="F8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>6</v>
+      </c>
+      <c r="B9" t="s">
+        <v>363</v>
+      </c>
+      <c r="C9" t="s">
+        <v>367</v>
+      </c>
+      <c r="D9" t="s">
+        <v>369</v>
+      </c>
+      <c r="E9" t="s">
+        <v>368</v>
+      </c>
+      <c r="F9" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>363</v>
+      </c>
+      <c r="C10" t="s">
+        <v>371</v>
+      </c>
+      <c r="D10" t="s">
+        <v>372</v>
+      </c>
+      <c r="E10" t="s">
+        <v>373</v>
+      </c>
+      <c r="F10" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>363</v>
+      </c>
+      <c r="C11" t="s">
+        <v>374</v>
+      </c>
+      <c r="D11" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2105,33 +2250,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AFFBCCB0-C9B3-442E-8A5D-EC6C21539DC1}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
-    </sheetView>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="10.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>141</v>
       </c>
@@ -2154,7 +2297,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2174,7 +2317,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>2</v>
       </c>
@@ -2191,7 +2334,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>3</v>
       </c>
@@ -2208,7 +2351,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>4</v>
       </c>
@@ -2225,7 +2368,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>5</v>
       </c>
@@ -2245,7 +2388,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>6</v>
       </c>
@@ -2262,7 +2405,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>7</v>
       </c>
@@ -2282,7 +2425,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>8</v>
       </c>
@@ -2296,7 +2439,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>9</v>
       </c>
@@ -2310,7 +2453,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>10</v>
       </c>
@@ -2330,7 +2473,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>11</v>
       </c>
@@ -2350,84 +2493,84 @@
         <v>310</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1">
       <c r="A19" t="str">
         <f xml:space="preserve"> "create table "&amp;A1&amp;" ("</f>
         <v>create table TMSTUSER (</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1">
       <c r="A20" t="str">
         <f t="shared" ref="A20:A30" si="0">B5&amp;" "&amp;C5&amp;IF(D5="Y"," PRIMARY KEY","")&amp;IF(E5="not null"," NOT NULL","")&amp;IF(F5="",""," default "&amp;F5)&amp;" ,"</f>
         <v>empid number PRIMARY KEY NOT NULL ,</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>empcode varchar2(10) NOT NULL ,</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>empname varchar2(15) NOT NULL ,</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>passwd varchar2(30) NOT NULL ,</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>sex number NOT NULL default 1 ,</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>createuser number NOT NULL ,</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>createdate date NOT NULL default sysdate ,</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>modifyuser number ,</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>modifydate date ,</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>status number NOT NULL default 0 ,</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>admin number NOT NULL default 1 ,</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1">
       <c r="A31" t="str">
         <f>");"</f>
         <v>);</v>
@@ -2443,33 +2586,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB03D5A5-0734-4EBB-AAA3-9950AEEFB6BA}">
   <dimension ref="A1:G32"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:A21"/>
-    </sheetView>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>193</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>141</v>
       </c>
@@ -2492,7 +2633,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2512,7 +2653,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>2</v>
       </c>
@@ -2526,7 +2667,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>3</v>
       </c>
@@ -2540,7 +2681,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>4</v>
       </c>
@@ -2560,7 +2701,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>5</v>
       </c>
@@ -2577,7 +2718,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>6</v>
       </c>
@@ -2591,7 +2732,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>7</v>
       </c>
@@ -2608,7 +2749,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>8</v>
       </c>
@@ -2628,7 +2769,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>9</v>
       </c>
@@ -2642,7 +2783,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>10</v>
       </c>
@@ -2656,7 +2797,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>11</v>
       </c>
@@ -2676,84 +2817,84 @@
         <v>163</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1">
       <c r="A18" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1">
       <c r="A20" t="str">
         <f xml:space="preserve"> "create table "&amp;A1&amp;" ("</f>
         <v>create table TMSTMENU (</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1">
       <c r="A21" t="str">
         <f>B5&amp;" "&amp;C5&amp;IF(D5="Y"," PRIMARY KEY","")&amp;IF(E5="not null"," NOT NULL","")&amp;IF(F5="",""," default "&amp;F5)&amp;" ,"</f>
         <v>menuid number PRIMARY KEY NOT NULL ,</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1">
       <c r="A22" t="str">
         <f t="shared" ref="A22:A29" si="0">B6&amp;" "&amp;C6&amp;IF(D6="Y"," PRIMARY KEY","")&amp;IF(E6="not null"," NOT NULL","")&amp;IF(F6="",""," default "&amp;F6)&amp;" ,"</f>
         <v>menucode varchar2(10) NOT NULL ,</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>mununame varchar2(30) NOT NULL ,</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>subject varchar2(5) NOT NULL default MST ,</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>level number NOT NULL ,</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>sortid number ,</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>createuser number NOT NULL ,</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>createdate date NOT NULL default sysdate ,</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>modifyuser number ,</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1">
       <c r="A30" t="str">
         <f>B14&amp;" "&amp;C14&amp;IF(D14="Y"," PRIMARY KEY","")&amp;IF(E14="not null"," NOT NULL","")&amp;IF(F14="",""," default "&amp;F14)&amp;" ,"</f>
         <v>modifydate date ,</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:1">
       <c r="A31" t="str">
         <f>B15&amp;" "&amp;C15&amp;IF(D15="Y"," PRIMARY KEY","")&amp;IF(E15="not null"," NOT NULL","")&amp;IF(F15="",""," default "&amp;F15)&amp;" ,"</f>
         <v>status number NOT NULL default 0 ,</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1">
       <c r="A32" t="str">
         <f>");"</f>
         <v>);</v>
@@ -2770,32 +2911,32 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:A28"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>141</v>
       </c>
@@ -2818,7 +2959,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>1</v>
       </c>
@@ -2838,7 +2979,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>2</v>
       </c>
@@ -2855,7 +2996,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>3</v>
       </c>
@@ -2872,7 +3013,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>4</v>
       </c>
@@ -2886,7 +3027,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>5</v>
       </c>
@@ -2903,7 +3044,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>6</v>
       </c>
@@ -2923,7 +3064,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>7</v>
       </c>
@@ -2937,7 +3078,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>8</v>
       </c>
@@ -2951,7 +3092,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>9</v>
       </c>
@@ -2971,72 +3112,72 @@
         <v>163</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1">
       <c r="A18" t="str">
         <f xml:space="preserve"> "create table "&amp;A1&amp;" ("</f>
         <v>create table TAUTPERMISSIONGROUP (</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1">
       <c r="A19" t="str">
         <f t="shared" ref="A19:A27" si="0">B5&amp;" "&amp;C5&amp;IF(D5="Y"," PRIMARY KEY","")&amp;IF(E5="not null"," NOT NULL","")&amp;IF(F5="",""," default "&amp;F5)&amp;" ,"</f>
         <v>pgroupid number PRIMARY KEY NOT NULL ,</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>pgroupcode varchar2(10) NOT NULL ,</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>pgroupname varchar2(15) NOT NULL ,</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>desc varchar2(50) ,</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>createuser number NOT NULL ,</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>createdate date NOT NULL default sysdate ,</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>modifyuser number ,</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>modifydate date ,</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>status number NOT NULL default 0 ,</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1">
       <c r="A28" t="str">
         <f>");"</f>
         <v>);</v>
@@ -3056,27 +3197,27 @@
       <selection activeCell="A16" sqref="A16:A25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>141</v>
       </c>
@@ -3099,7 +3240,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>1</v>
       </c>
@@ -3119,7 +3260,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>2</v>
       </c>
@@ -3139,7 +3280,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>3</v>
       </c>
@@ -3156,7 +3297,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>4</v>
       </c>
@@ -3176,7 +3317,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>5</v>
       </c>
@@ -3190,7 +3331,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>6</v>
       </c>
@@ -3204,7 +3345,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>7</v>
       </c>
@@ -3224,66 +3365,66 @@
         <v>163</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" t="str">
         <f xml:space="preserve"> "create table "&amp;A1&amp;" ("</f>
         <v>create table TAUTGROUPMENU (</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1">
       <c r="A17" t="str">
         <f>B5&amp;" "&amp;C5&amp;IF(E5="not null"," NOT NULL","")&amp;IF(F5="",""," default "&amp;F5)&amp;" ,"</f>
         <v>pgroupid number NOT NULL ,</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1">
       <c r="A18" t="str">
         <f t="shared" ref="A18:A23" si="0">B6&amp;" "&amp;C6&amp;IF(E6="not null"," NOT NULL","")&amp;IF(F6="",""," default "&amp;F6)&amp;" ,"</f>
         <v>menuid number NOT NULL ,</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>createuser number NOT NULL ,</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>createdate date NOT NULL default sysdate ,</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>modifyuser number ,</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>modifydate date ,</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>status number NOT NULL default 0 ,</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1">
       <c r="A24" t="str">
         <f>"PRIMARY KEY ("&amp;B5&amp;" ,"&amp;B6&amp;"),"</f>
         <v>PRIMARY KEY (pgroupid ,menuid),</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1">
       <c r="A25" t="str">
         <f>");"</f>
         <v>);</v>
@@ -3303,29 +3444,29 @@
       <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.875" customWidth="1"/>
+    <col min="3" max="3" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>141</v>
       </c>
@@ -3348,7 +3489,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>1</v>
       </c>
@@ -3368,7 +3509,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>2</v>
       </c>
@@ -3388,7 +3529,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>3</v>
       </c>
@@ -3405,7 +3546,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>4</v>
       </c>
@@ -3425,7 +3566,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>5</v>
       </c>
@@ -3439,7 +3580,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>6</v>
       </c>
@@ -3453,7 +3594,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>7</v>
       </c>
@@ -3473,66 +3614,66 @@
         <v>163</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" t="str">
         <f xml:space="preserve"> "create table "&amp;A1&amp;" ("</f>
         <v>create table TAUTUSERPERMISSION (</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1">
       <c r="A17" t="str">
         <f>B5&amp;" "&amp;C5&amp;IF(E5="not null"," NOT NULL","")&amp;IF(F5="",""," default "&amp;F5)&amp;" ,"</f>
         <v>empid number NOT NULL ,</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1">
       <c r="A18" t="str">
         <f t="shared" ref="A18:A22" si="0">B6&amp;" "&amp;C6&amp;IF(E6="not null"," NOT NULL","")&amp;IF(F6="",""," default "&amp;F6)&amp;" ,"</f>
         <v>pgroupid number NOT NULL ,</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>createuser number NOT NULL ,</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>createdate date NOT NULL default sysdate ,</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>modifyuser number ,</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>modifydate date ,</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1">
       <c r="A23" t="str">
         <f>B11&amp;" "&amp;C11&amp;IF(E11="not null"," NOT NULL","")&amp;IF(F11="",""," default "&amp;F11)&amp;" ,"</f>
         <v>status number NOT NULL default 0 ,</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1">
       <c r="A24" t="str">
         <f>"PRIMARY KEY ("&amp;B5&amp;" ,"&amp;B6&amp;"),"</f>
         <v>PRIMARY KEY (empid ,pgroupid),</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1">
       <c r="A25" t="str">
         <f>");"</f>
         <v>);</v>
@@ -3548,27 +3689,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B66EAD3-5661-4A32-8504-975CF94B532D}">
   <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.875" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>225</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>226</v>
       </c>
@@ -3579,7 +3720,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
         <v>227</v>
       </c>
@@ -3602,7 +3743,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>1</v>
       </c>
@@ -3622,7 +3763,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>2</v>
       </c>
@@ -3639,7 +3780,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>3</v>
       </c>
@@ -3656,7 +3797,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>4</v>
       </c>
@@ -3670,7 +3811,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>5</v>
       </c>
@@ -3687,7 +3828,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>6</v>
       </c>
@@ -3704,7 +3845,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>7</v>
       </c>
@@ -3718,7 +3859,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>8</v>
       </c>
@@ -3732,7 +3873,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>9</v>
       </c>
@@ -3749,7 +3890,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>10</v>
       </c>
@@ -3763,7 +3904,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>11</v>
       </c>
@@ -3782,7 +3923,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>12</v>
       </c>
@@ -3803,7 +3944,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>13</v>
       </c>
@@ -3820,7 +3961,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>14</v>
       </c>
@@ -3837,7 +3978,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>15</v>
       </c>
@@ -3858,7 +3999,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7">
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -3866,7 +4007,7 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7">
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -3874,7 +4015,7 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7">
       <c r="A22" t="s">
         <v>303</v>
       </c>
@@ -3885,7 +4026,7 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7">
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -3893,103 +4034,103 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7">
       <c r="A24" t="str">
         <f xml:space="preserve"> "create table "&amp;A1&amp;" ("</f>
         <v>create table TBUSPROJECT (</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7">
       <c r="A25" t="str">
         <f>B5&amp;" "&amp;C5&amp;IF(D5="Y"," PRIMARY KEY","")&amp;IF(E5="not null"," NOT NULL","")&amp;IF(F5="",""," default "&amp;F5)&amp;" ,"</f>
         <v>prjid number PRIMARY KEY NOT NULL ,</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7">
       <c r="A26" t="str">
         <f t="shared" ref="A26:A39" si="0">B6&amp;" "&amp;C6&amp;IF(D6="Y"," PRIMARY KEY","")&amp;IF(E6="not null"," NOT NULL","")&amp;IF(F6="",""," default "&amp;F6)&amp;" ,"</f>
         <v>prjcode varchar2(20) NOT NULL ,</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>prjname varchar2(50) NOT NULL ,</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>cstid number ,</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>ownerid number NOT NULL ,</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
         <v>sponsorid number NOT NULL ,</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
         <v>desc varchar2(2000) ,</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
         <v>goal varchar2(1000) ,</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
         <v>approvetime date default sysdate ,</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
         <v>expectedtime date ,</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
         <v>createuser number NOT NULL ,</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
         <v>createdate date NOT NULL default sysdate ,</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
         <v>modifyuser number ,</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
         <v>modifydate date ,</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1">
       <c r="A39" t="str">
         <f t="shared" si="0"/>
         <v>status number NOT NULL default 0 ,</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1">
       <c r="A40" t="str">
         <f>");"</f>
         <v>);</v>
@@ -4009,24 +4150,24 @@
       <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.875" customWidth="1"/>
+    <col min="3" max="3" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>226</v>
       </c>
@@ -4037,7 +4178,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
         <v>227</v>
       </c>
@@ -4060,7 +4201,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>1</v>
       </c>
@@ -4080,7 +4221,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>2</v>
       </c>
@@ -4097,7 +4238,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>3</v>
       </c>
@@ -4117,7 +4258,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>4</v>
       </c>
@@ -4136,7 +4277,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>5</v>
       </c>
@@ -4157,7 +4298,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>6</v>
       </c>
@@ -4174,7 +4315,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>7</v>
       </c>
@@ -4191,7 +4332,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>8</v>
       </c>
@@ -4212,7 +4353,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -4220,72 +4361,72 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1">
       <c r="A17" t="str">
         <f xml:space="preserve"> "create table "&amp;A1&amp;" ("</f>
         <v>create table TBUSEVENT (</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1">
       <c r="A18" t="str">
         <f>B5&amp;" "&amp;C5&amp;IF(E5="not null"," NOT NULL","")&amp;IF(F5="",""," default "&amp;F5)&amp;" ,"</f>
         <v>eventid number NOT NULL ,</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1">
       <c r="A19" t="str">
         <f t="shared" ref="A19:A23" si="0">B6&amp;" "&amp;C6&amp;IF(E6="not null"," NOT NULL","")&amp;IF(F6="",""," default "&amp;F6)&amp;" ,"</f>
         <v>reporter number NOT NULL ,</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>reportertime date NOT NULL default sysdate ,</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>createuser number NOT NULL ,</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>createdate date NOT NULL default sysdate ,</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>modifyuser number ,</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1">
       <c r="A24" t="str">
         <f>B11&amp;" "&amp;C11&amp;IF(E11="not null"," NOT NULL","")&amp;IF(F11="",""," default "&amp;F11)&amp;" ,"</f>
         <v>modifydate date ,</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1">
       <c r="A25" t="str">
         <f>B12&amp;" "&amp;C12&amp;IF(E12="not null"," NOT NULL","")&amp;IF(F12="",""," default "&amp;F12)&amp;" ,"</f>
         <v>status number NOT NULL default 0 ,</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1">
       <c r="A26" t="str">
         <f>"PRIMARY KEY ("&amp;B5&amp;"),"</f>
         <v>PRIMARY KEY (eventid),</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1">
       <c r="A27" t="str">
         <f>");"</f>
         <v>);</v>
@@ -4305,19 +4446,19 @@
       <selection activeCell="A15" sqref="A15:XFD15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>226</v>
       </c>
@@ -4328,7 +4469,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
         <v>227</v>
       </c>
@@ -4351,7 +4492,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>1</v>
       </c>
@@ -4368,7 +4509,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>2</v>
       </c>
@@ -4385,7 +4526,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>3</v>
       </c>
@@ -4405,7 +4546,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>4</v>
       </c>
@@ -4422,7 +4563,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>5</v>
       </c>
@@ -4439,7 +4580,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>6</v>
       </c>
@@ -4458,7 +4599,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>7</v>
       </c>
@@ -4479,7 +4620,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>8</v>
       </c>
@@ -4496,7 +4637,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>9</v>
       </c>
@@ -4513,7 +4654,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>10</v>
       </c>
@@ -4534,7 +4675,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -4542,78 +4683,78 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1">
       <c r="A19" t="str">
         <f xml:space="preserve"> "create table "&amp;A1&amp;" ("</f>
         <v>create table TBUSPRJEVENT (</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1">
       <c r="A20" t="str">
         <f t="shared" ref="A20:A29" si="0">B5&amp;" "&amp;C5&amp;IF(D5="Y"," PRIMARY KEY","")&amp;IF(E5="not null"," NOT NULL","")&amp;IF(F5="",""," default "&amp;F5)&amp;" ,"</f>
         <v>prjid number NOT NULL ,</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>eventid number NOT NULL ,</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>leafid number PRIMARY KEY NOT NULL ,</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>depth number NOT NULL ,</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>parentid number NOT NULL ,</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>createuser number NOT NULL ,</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>createdate date NOT NULL default sysdate ,</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>modifyuser number ,</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>modifydate date ,</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
         <v>status number NOT NULL default 0 ,</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1">
       <c r="A30" t="str">
         <f>");"</f>
         <v>);</v>
@@ -4633,24 +4774,24 @@
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.875" customWidth="1"/>
+    <col min="3" max="3" width="7.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="2" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
         <v>226</v>
       </c>
@@ -4661,7 +4802,7 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
         <v>227</v>
       </c>
@@ -4684,7 +4825,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>1</v>
       </c>
@@ -4704,7 +4845,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>2</v>
       </c>
@@ -4724,7 +4865,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>3</v>
       </c>
@@ -4743,7 +4884,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>4</v>
       </c>
@@ -4764,7 +4905,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>5</v>
       </c>
@@ -4781,7 +4922,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>6</v>
       </c>
@@ -4798,7 +4939,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>7</v>
       </c>
@@ -4819,66 +4960,66 @@
         <v>259</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" t="str">
         <f xml:space="preserve"> "create table "&amp;A1&amp;" ("</f>
         <v>create table TBUSPRJMEMBER (</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1">
       <c r="A17" t="str">
         <f t="shared" ref="A17:A23" si="0">B5&amp;" "&amp;C5&amp;IF(D5="Y"," PRIMARY KEY","")&amp;IF(E5="not null"," NOT NULL","")&amp;IF(F5="",""," default "&amp;F5)&amp;" ,"</f>
         <v>prjid number PRIMARY KEY NOT NULL ,</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
         <v>empid number PRIMARY KEY NOT NULL ,</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
         <v>createuser number NOT NULL ,</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
         <v>createdate date NOT NULL default sysdate ,</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>modifyuser number ,</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>modifydate date ,</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>status number NOT NULL default 0 ,</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1">
       <c r="A24" t="str">
         <f>"PRIMARY KEY ("&amp;B5&amp;" ,"&amp;B6&amp;"),"</f>
         <v>PRIMARY KEY (prjid ,empid),</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1">
       <c r="A25" t="str">
         <f>");"</f>
         <v>);</v>
@@ -4894,35 +5035,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8B7201F-CB24-4D7C-8163-8A6BA1356558}">
   <dimension ref="A1:K40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D10" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="C30" sqref="C30"/>
+      <selection pane="bottomRight" activeCell="F7" sqref="F6:F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="19" customWidth="1"/>
     <col min="5" max="5" width="45" customWidth="1"/>
-    <col min="6" max="6" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="21.83203125" bestFit="1" customWidth="1"/>
     <col min="7" max="8" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="22.625" customWidth="1"/>
+    <col min="9" max="9" width="22.6640625" customWidth="1"/>
     <col min="10" max="10" width="23.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4957,7 +5098,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11">
       <c r="A4">
         <v>1</v>
       </c>
@@ -4992,7 +5133,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11">
       <c r="A5">
         <v>2</v>
       </c>
@@ -5027,7 +5168,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11">
       <c r="A6">
         <v>3</v>
       </c>
@@ -5062,7 +5203,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11">
       <c r="A7">
         <v>4</v>
       </c>
@@ -5097,7 +5238,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11">
       <c r="A8">
         <v>5</v>
       </c>
@@ -5132,7 +5273,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11">
       <c r="A9">
         <v>6</v>
       </c>
@@ -5167,7 +5308,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11">
       <c r="A10">
         <v>7</v>
       </c>
@@ -5202,7 +5343,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11">
       <c r="A11">
         <v>8</v>
       </c>
@@ -5237,7 +5378,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11">
       <c r="A12">
         <v>9</v>
       </c>
@@ -5272,7 +5413,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11">
       <c r="A13">
         <v>10</v>
       </c>
@@ -5307,7 +5448,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11">
       <c r="A14">
         <v>11</v>
       </c>
@@ -5342,7 +5483,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11">
       <c r="A15">
         <v>12</v>
       </c>
@@ -5377,7 +5518,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11">
       <c r="A16">
         <v>13</v>
       </c>
@@ -5412,7 +5553,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11">
       <c r="A17">
         <v>14</v>
       </c>
@@ -5447,7 +5588,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11">
       <c r="A18">
         <v>15</v>
       </c>
@@ -5482,7 +5623,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11">
       <c r="A19">
         <v>16</v>
       </c>
@@ -5517,7 +5658,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11">
       <c r="A20">
         <v>17</v>
       </c>
@@ -5552,7 +5693,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11">
       <c r="A21">
         <v>18</v>
       </c>
@@ -5587,7 +5728,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11">
       <c r="A22">
         <v>19</v>
       </c>
@@ -5622,7 +5763,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11">
       <c r="A23">
         <v>20</v>
       </c>
@@ -5657,7 +5798,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11">
       <c r="A24">
         <v>21</v>
       </c>
@@ -5673,7 +5814,7 @@
       <c r="E24" t="s">
         <v>41</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="11" t="s">
         <v>87</v>
       </c>
       <c r="G24" t="s">
@@ -5692,7 +5833,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11">
       <c r="A25">
         <v>22</v>
       </c>
@@ -5712,7 +5853,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11">
       <c r="A26">
         <v>23</v>
       </c>
@@ -5732,7 +5873,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11">
       <c r="A27">
         <v>24</v>
       </c>
@@ -5752,7 +5893,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11">
       <c r="A28">
         <v>25</v>
       </c>
@@ -5772,7 +5913,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11">
       <c r="A29">
         <v>26</v>
       </c>
@@ -5792,7 +5933,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11">
       <c r="A30">
         <v>27</v>
       </c>
@@ -5812,7 +5953,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11">
       <c r="A31">
         <v>28</v>
       </c>
@@ -5832,7 +5973,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11">
       <c r="A32">
         <v>29</v>
       </c>
@@ -5852,7 +5993,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11">
       <c r="A33">
         <v>30</v>
       </c>
@@ -5872,7 +6013,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11">
       <c r="A34">
         <v>31</v>
       </c>
@@ -5892,7 +6033,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11">
       <c r="A35">
         <v>32</v>
       </c>
@@ -5912,7 +6053,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11">
       <c r="A36">
         <v>33</v>
       </c>
@@ -5932,7 +6073,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11">
       <c r="A37">
         <v>34</v>
       </c>
@@ -5952,7 +6093,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11">
       <c r="A38">
         <v>35</v>
       </c>
@@ -5968,7 +6109,7 @@
       <c r="E38" t="s">
         <v>108</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F38" s="11" t="s">
         <v>109</v>
       </c>
       <c r="G38" t="s">
@@ -5987,7 +6128,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11">
       <c r="A39">
         <v>36</v>
       </c>
@@ -6003,7 +6144,7 @@
       <c r="E39" t="s">
         <v>110</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="11" t="s">
         <v>111</v>
       </c>
       <c r="G39" t="s">
@@ -6022,7 +6163,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11">
       <c r="A40">
         <v>37</v>
       </c>
@@ -6038,7 +6179,7 @@
       <c r="E40" t="s">
         <v>308</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F40" s="11" t="s">
         <v>339</v>
       </c>
       <c r="G40" t="s">
@@ -6058,6 +6199,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A3:K3" xr:uid="{F8B7201F-CB24-4D7C-8163-8A6BA1356558}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6067,23 +6209,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0D929342-8B56-46A7-968F-E576A556591A}">
   <dimension ref="A1:B19"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="22" thickTop="1">
       <c r="A1" s="9" t="s">
         <v>347</v>
       </c>
       <c r="B1" s="9"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
         <v>328</v>
       </c>
@@ -6091,7 +6233,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
         <v>327</v>
       </c>
@@ -6099,53 +6241,53 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="10" t="s">
         <v>311</v>
       </c>
       <c r="B4" s="10"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5" s="4" t="s">
         <v>320</v>
       </c>
       <c r="B5" s="6"/>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
         <v>319</v>
       </c>
       <c r="B6" s="6"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" s="10" t="s">
         <v>313</v>
       </c>
       <c r="B7" s="10"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" s="10" t="s">
         <v>318</v>
       </c>
       <c r="B12" s="10"/>
     </row>
-    <row r="13" spans="1:2" ht="57" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" ht="64">
       <c r="A13" s="4" t="s">
         <v>320</v>
       </c>
@@ -6153,7 +6295,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" ht="16">
       <c r="A14" s="4" t="s">
         <v>319</v>
       </c>
@@ -6161,13 +6303,13 @@
         <v>342</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" s="10" t="s">
         <v>322</v>
       </c>
       <c r="B15" s="10"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" s="8" t="s">
         <v>330</v>
       </c>
@@ -6175,7 +6317,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17" s="4" t="s">
         <v>344</v>
       </c>
@@ -6183,11 +6325,11 @@
         <v>345</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="16" thickBot="1">
       <c r="A18" s="7"/>
       <c r="B18" s="7"/>
     </row>
-    <row r="19" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="1:2" ht="16" thickTop="1"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
@@ -6208,23 +6350,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5A2AD968-499C-4826-A39F-D90C89973BC5}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="22" thickTop="1">
       <c r="A1" s="9" t="s">
         <v>333</v>
       </c>
       <c r="B1" s="9"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
         <v>328</v>
       </c>
@@ -6232,7 +6374,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
         <v>327</v>
       </c>
@@ -6240,13 +6382,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="10" t="s">
         <v>311</v>
       </c>
       <c r="B4" s="10"/>
     </row>
-    <row r="5" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="48">
       <c r="A5" s="4" t="s">
         <v>320</v>
       </c>
@@ -6254,7 +6396,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" ht="80">
       <c r="A6" s="4" t="s">
         <v>319</v>
       </c>
@@ -6262,13 +6404,13 @@
         <v>312</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" s="10" t="s">
         <v>313</v>
       </c>
       <c r="B7" s="10"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="4" t="s">
         <v>330</v>
       </c>
@@ -6276,7 +6418,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" s="4" t="s">
         <v>167</v>
       </c>
@@ -6284,7 +6426,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" s="4" t="s">
         <v>152</v>
       </c>
@@ -6292,7 +6434,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" s="4" t="s">
         <v>316</v>
       </c>
@@ -6300,19 +6442,19 @@
         <v>317</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" s="10" t="s">
         <v>318</v>
       </c>
       <c r="B12" s="10"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" s="4" t="s">
         <v>320</v>
       </c>
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:2" ht="57" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" ht="64">
       <c r="A14" s="4" t="s">
         <v>319</v>
       </c>
@@ -6320,13 +6462,13 @@
         <v>321</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" s="10" t="s">
         <v>322</v>
       </c>
       <c r="B15" s="10"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" s="4" t="s">
         <v>323</v>
       </c>
@@ -6334,7 +6476,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="16" thickBot="1">
       <c r="A17" s="7" t="s">
         <v>325</v>
       </c>
@@ -6342,7 +6484,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="1:2" ht="16" thickTop="1"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A12:B12"/>
@@ -6363,23 +6505,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30D35525-84E8-4AD3-8D45-E2CE9905C83B}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.75" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21" thickTop="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2" ht="22" thickTop="1">
       <c r="A1" s="9" t="s">
         <v>336</v>
       </c>
       <c r="B1" s="9"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" s="4" t="s">
         <v>328</v>
       </c>
@@ -6387,7 +6529,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3" s="4" t="s">
         <v>327</v>
       </c>
@@ -6395,13 +6537,13 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4" s="10" t="s">
         <v>311</v>
       </c>
       <c r="B4" s="10"/>
     </row>
-    <row r="5" spans="1:2" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" ht="48">
       <c r="A5" s="4" t="s">
         <v>320</v>
       </c>
@@ -6409,19 +6551,19 @@
         <v>338</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6" s="4" t="s">
         <v>319</v>
       </c>
       <c r="B6" s="6"/>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7" s="10" t="s">
         <v>313</v>
       </c>
       <c r="B7" s="10"/>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8" s="4" t="s">
         <v>330</v>
       </c>
@@ -6429,31 +6571,31 @@
         <v>331</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12" s="10" t="s">
         <v>318</v>
       </c>
       <c r="B12" s="10"/>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13" s="4" t="s">
         <v>320</v>
       </c>
       <c r="B13" s="4"/>
     </row>
-    <row r="14" spans="1:2" ht="57" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" ht="64">
       <c r="A14" s="4" t="s">
         <v>319</v>
       </c>
@@ -6461,13 +6603,13 @@
         <v>321</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15" s="10" t="s">
         <v>322</v>
       </c>
       <c r="B15" s="10"/>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16" s="4" t="s">
         <v>323</v>
       </c>
@@ -6475,7 +6617,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="16" thickBot="1">
       <c r="A17" s="7" t="s">
         <v>325</v>
       </c>
@@ -6483,7 +6625,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="18" spans="1:2" ht="16" thickTop="1"/>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:B1"/>
@@ -6505,21 +6647,21 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="23.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.83203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -6533,7 +6675,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>1</v>
       </c>
@@ -6547,7 +6689,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4">
         <v>2</v>
       </c>
@@ -6561,7 +6703,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5">
         <v>3</v>
       </c>
@@ -6575,7 +6717,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6">
         <v>4</v>
       </c>
@@ -6589,7 +6731,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7">
         <v>5</v>
       </c>
@@ -6603,7 +6745,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8">
         <v>6</v>
       </c>
@@ -6617,7 +6759,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9">
         <v>7</v>
       </c>
@@ -6631,7 +6773,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10">
         <v>8</v>
       </c>
@@ -6645,7 +6787,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11">
         <v>9</v>
       </c>
@@ -6659,7 +6801,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12">
         <v>10</v>
       </c>
@@ -6673,7 +6815,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13">
         <v>11</v>
       </c>
@@ -6701,7 +6843,7 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6716,29 +6858,29 @@
       <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>141</v>
       </c>
@@ -6761,7 +6903,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>1</v>
       </c>
@@ -6781,7 +6923,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>2</v>
       </c>
@@ -6798,7 +6940,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>3</v>
       </c>
@@ -6815,7 +6957,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>4</v>
       </c>
@@ -6829,7 +6971,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>5</v>
       </c>
@@ -6843,7 +6985,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>6</v>
       </c>
@@ -6860,7 +7002,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>7</v>
       </c>
@@ -6880,7 +7022,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>8</v>
       </c>
@@ -6894,7 +7036,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>9</v>
       </c>
@@ -6908,7 +7050,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>10</v>
       </c>
@@ -6928,154 +7070,154 @@
         <v>163</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:1">
       <c r="A17" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1">
       <c r="A19" t="str">
         <f xml:space="preserve"> "create table "&amp;A1&amp;" ("</f>
         <v>create table TMSTCOMP (</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1">
       <c r="A20" t="str">
         <f>B5&amp;" "&amp;C5&amp;IF(D5="Y"," PRIMARY KEY","")&amp;IF(E5="not null"," NOT NULL","")&amp;IF(F5="",""," default "&amp;F5)&amp;" ,"</f>
         <v>compid number PRIMARY KEY NOT NULL ,</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1">
       <c r="A21" t="str">
         <f>B6&amp;" "&amp;C6&amp;IF(D6="Y"," PRIMARY KEY","")&amp;IF(E6="not null"," NOT NULL","")&amp;IF(F6="",""," default "&amp;F6)&amp;" ,"</f>
         <v>compcode varchar2(10) NOT NULL ,</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1">
       <c r="A22" t="str">
         <f>B7&amp;" "&amp;C7&amp;IF(D7="Y"," PRIMARY KEY","")&amp;IF(E7="not null"," NOT NULL","")&amp;IF(F7="",""," default "&amp;F7)&amp;" ,"</f>
         <v>compname varchar2(15) NOT NULL ,</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1">
       <c r="A23" t="str">
         <f>B8&amp;" "&amp;C8&amp;IF(D8="Y"," PRIMARY KEY","")&amp;IF(E8="not null"," NOT NULL","")&amp;IF(F8="",""," default "&amp;F8)&amp;" ,"</f>
         <v>compadd varchar2(30) ,</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1">
       <c r="A24" t="str">
         <f>B9&amp;" "&amp;C9&amp;IF(D9="Y"," PRIMARY KEY","")&amp;IF(E9="not null"," NOT NULL","")&amp;IF(F9="",""," default "&amp;F9)&amp;" ,"</f>
         <v>uscicode varchar2(20) ,</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1">
       <c r="A25" t="str">
         <f t="shared" ref="A25:A28" si="0">B10&amp;" "&amp;C10&amp;IF(D10="Y"," PRIMARY KEY","")&amp;IF(E10="not null"," NOT NULL","")&amp;IF(F10="",""," default "&amp;F10)&amp;" ,"</f>
         <v>createuser number NOT NULL ,</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>createdate date NOT NULL default sysdate ,</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>modifyuser number ,</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
         <v>modifydate date ,</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:1">
       <c r="A29" t="str">
         <f>B14&amp;" "&amp;C14&amp;IF(D14="Y"," PRIMARY KEY","")&amp;IF(E14="not null"," NOT NULL","")&amp;IF(F14="",""," default "&amp;F14)&amp;" ,"</f>
         <v>status number NOT NULL default 0 ,</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:1">
       <c r="A30" t="str">
         <f t="shared" ref="A30" si="1">");"</f>
         <v>);</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:1">
       <c r="A32" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1">
       <c r="A34" t="str">
         <f>"comment on table "&amp;A1&amp;" is "&amp;"'"&amp;A2&amp;"';"</f>
         <v>comment on table TMSTCOMP is '公司表';</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1">
       <c r="A36" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1">
       <c r="A38" t="str">
         <f xml:space="preserve"> "comment on column "&amp;A1&amp;"."&amp;B5&amp;" is "&amp;"'"&amp;G5&amp;"';"</f>
         <v>comment on column TMSTCOMP.compid is 'PK，公司内码';</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1">
       <c r="A39" t="str">
         <f xml:space="preserve"> "comment on column "&amp;A1&amp;"."&amp;B6&amp;" is "&amp;"'"&amp;G6&amp;"';"</f>
         <v>comment on column TMSTCOMP.compcode is '公司编码';</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1">
       <c r="A40" t="str">
         <f xml:space="preserve"> "comment on column "&amp;A1&amp;"."&amp;B7&amp;" is "&amp;"'"&amp;G7&amp;"';"</f>
         <v>comment on column TMSTCOMP.compname is '公司名';</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1">
       <c r="A41" t="str">
         <f xml:space="preserve"> "comment on column "&amp;A1&amp;"."&amp;B8&amp;" is "&amp;"'"&amp;G8&amp;"';"</f>
         <v>comment on column TMSTCOMP.compadd is '公司注册地址';</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1">
       <c r="A42" t="str">
         <f xml:space="preserve"> "comment on column "&amp;A1&amp;"."&amp;B9&amp;" is "&amp;"'"&amp;G9&amp;"';"</f>
         <v>comment on column TMSTCOMP.uscicode is '统一社会信用代码';</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:1">
       <c r="A44" t="str">
         <f xml:space="preserve"> "comment on column "&amp;A1&amp;"."&amp;B10&amp;" is "&amp;"'"&amp;G10&amp;"';"</f>
         <v>comment on column TMSTCOMP.createuser is '创建人内码';</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:1">
       <c r="A45" t="str">
         <f xml:space="preserve"> "comment on column "&amp;A1&amp;"."&amp;B11&amp;" is "&amp;"'"&amp;G11&amp;"';"</f>
         <v>comment on column TMSTCOMP.createdate is '创建时间';</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:1">
       <c r="A46" t="str">
         <f xml:space="preserve"> "comment on column "&amp;A1&amp;"."&amp;B12&amp;" is "&amp;"'"&amp;G12&amp;"';"</f>
         <v>comment on column TMSTCOMP.modifyuser is '修改人内码';</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:1">
       <c r="A47" t="str">
         <f xml:space="preserve"> "comment on column "&amp;A1&amp;"."&amp;B13&amp;" is "&amp;"'"&amp;G13&amp;"';"</f>
         <v>comment on column TMSTCOMP.modifydate is '修改时间';</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:1">
       <c r="A48" t="str">
         <f xml:space="preserve"> "comment on column "&amp;A1&amp;"."&amp;B14&amp;" is "&amp;"'"&amp;G14&amp;"';"</f>
         <v>comment on column TMSTCOMP.status is '状态位，0正常，1停用';</v>
@@ -7091,33 +7233,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A621814-3F40-42DB-95AD-20D354D5B23F}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:A19"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="B1" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7">
       <c r="A3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7">
       <c r="A4" t="s">
         <v>141</v>
       </c>
@@ -7140,7 +7285,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>1</v>
       </c>
@@ -7160,7 +7305,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>2</v>
       </c>
@@ -7177,7 +7322,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>3</v>
       </c>
@@ -7194,7 +7339,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>4</v>
       </c>
@@ -7208,7 +7353,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>5</v>
       </c>
@@ -7225,7 +7370,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>6</v>
       </c>
@@ -7245,7 +7390,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>7</v>
       </c>
@@ -7259,7 +7404,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>8</v>
       </c>
@@ -7273,7 +7418,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>9</v>
       </c>
@@ -7293,72 +7438,72 @@
         <v>163</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:1">
       <c r="A18" t="str">
         <f xml:space="preserve"> "create table "&amp;A1&amp;" ("</f>
         <v>create table TMSTDEPT (</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:1">
       <c r="A19" t="str">
         <f>B5&amp;" "&amp;C5&amp;IF(D5="Y"," PRIMARY KEY","")&amp;IF(E5="not null"," NOT NULL","")&amp;IF(F5="",""," default "&amp;F5)&amp;" ,"</f>
         <v>deptid number PRIMARY KEY NOT NULL ,</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:1">
       <c r="A20" t="str">
         <f t="shared" ref="A20:A27" si="0">B6&amp;" "&amp;C6&amp;IF(D6="Y"," PRIMARY KEY","")&amp;IF(E6="not null"," NOT NULL","")&amp;IF(F6="",""," default "&amp;F6)&amp;" ,"</f>
         <v>deptcode varchar2(10) NOT NULL ,</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:1">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
         <v>deptname varchar2(15) NOT NULL ,</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:1">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
         <v>deptlocation varchar2(30) ,</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:1">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
         <v>createuser number NOT NULL ,</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:1">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
         <v>createdate date NOT NULL default sysdate ,</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:1">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
         <v>modifyuser number ,</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:1">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
         <v>modifydate date ,</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:1">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
         <v>status number NOT NULL default 0 ,</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:1">
       <c r="A28" t="str">
         <f>");"</f>
         <v>);</v>
